--- a/miles.xlsx
+++ b/miles.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -27,6 +27,9 @@
   <si>
     <t>Mile(s)</t>
   </si>
+  <si>
+    <t>Expected</t>
+  </si>
 </sst>
 </file>
 
@@ -35,7 +38,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +53,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -74,20 +90,20 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -391,36 +407,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="14.7109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="6" customWidth="1"/>
+    <col min="2" max="4" width="18.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>44827</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>4</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>4</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>44829</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E26CBBF4-B4DC-4F21-9D9B-B0E9C2B23307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -116,6 +117,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -163,7 +167,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -196,9 +200,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,6 +252,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,20 +444,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="6" customWidth="1"/>
-    <col min="2" max="4" width="18.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" style="6" customWidth="1"/>
+    <col min="2" max="4" width="18.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -433,7 +471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>44827</v>
       </c>
@@ -447,7 +485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>44829</v>
       </c>
@@ -461,8 +499,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>44833</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C1"/>
+  <autoFilter ref="A1:C1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E26CBBF4-B4DC-4F21-9D9B-B0E9C2B23307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7E6840-8A25-48F7-BCF8-A57180C83AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="2022" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet3!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2022'!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -445,11 +445,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -513,6 +511,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>44836</v>
+      </c>
+      <c r="B5" s="5">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7E6840-8A25-48F7-BCF8-A57180C83AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137950B8-545E-4DDE-B4AE-0DCC87FE296D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,6 +525,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>44837</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="D6" s="5">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137950B8-545E-4DDE-B4AE-0DCC87FE296D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA0FCD9-B4E4-4302-94CC-F6AF37B15717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,9 +445,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -539,6 +541,34 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>44840</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>18.5</v>
+      </c>
+      <c r="D7" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>44841</v>
+      </c>
+      <c r="B8" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C8" s="5">
+        <v>22.9</v>
+      </c>
+      <c r="D8" s="5">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA0FCD9-B4E4-4302-94CC-F6AF37B15717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629BEBA1-7470-4658-8F99-47872B23B673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -569,6 +569,20 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>44842</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2.31</v>
+      </c>
+      <c r="C9" s="5">
+        <v>26.21</v>
+      </c>
+      <c r="D9" s="5">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629BEBA1-7470-4658-8F99-47872B23B673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC581EF-4150-4BBE-81DB-92C5342ECAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -583,6 +583,20 @@
         <v>16</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>44844</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2.06</v>
+      </c>
+      <c r="C10" s="5">
+        <v>28.26</v>
+      </c>
+      <c r="D10" s="5">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC581EF-4150-4BBE-81DB-92C5342ECAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{720E01B1-B93A-48B7-B4CE-53A4B8926CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,22 +86,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -445,34 +448,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" style="6" customWidth="1"/>
-    <col min="2" max="4" width="18.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="18.7265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>44827</v>
       </c>
       <c r="B2" s="5">
@@ -481,12 +483,12 @@
       <c r="C2" s="5">
         <v>4</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>44829</v>
       </c>
       <c r="B3" s="5">
@@ -495,12 +497,12 @@
       <c r="C3" s="5">
         <v>8</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>44833</v>
       </c>
       <c r="B4" s="5">
@@ -509,12 +511,12 @@
       <c r="C4" s="5">
         <v>10</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>44836</v>
       </c>
       <c r="B5" s="5">
@@ -523,12 +525,12 @@
       <c r="C5" s="5">
         <v>16</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>44837</v>
       </c>
       <c r="B6" s="5">
@@ -537,12 +539,12 @@
       <c r="C6" s="5">
         <v>17.5</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>44840</v>
       </c>
       <c r="B7" s="5">
@@ -551,12 +553,12 @@
       <c r="C7" s="5">
         <v>18.5</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>44841</v>
       </c>
       <c r="B8" s="5">
@@ -565,12 +567,12 @@
       <c r="C8" s="5">
         <v>22.9</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>44842</v>
       </c>
       <c r="B9" s="5">
@@ -579,12 +581,12 @@
       <c r="C9" s="5">
         <v>26.21</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>44844</v>
       </c>
       <c r="B10" s="5">
@@ -593,13 +595,667 @@
       <c r="C10" s="5">
         <v>28.26</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="6">
         <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>44846</v>
+      </c>
+      <c r="B11" s="5">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="C11" s="5">
+        <v>32.869999999999997</v>
+      </c>
+      <c r="D11" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>44847</v>
+      </c>
+      <c r="D12" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>44848</v>
+      </c>
+      <c r="D13" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>44849</v>
+      </c>
+      <c r="D14" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>44850</v>
+      </c>
+      <c r="D15" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>44851</v>
+      </c>
+      <c r="D16" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>44852</v>
+      </c>
+      <c r="D17" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>44853</v>
+      </c>
+      <c r="D18" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>44854</v>
+      </c>
+      <c r="D19" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>44855</v>
+      </c>
+      <c r="D20" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>44856</v>
+      </c>
+      <c r="D21" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>44857</v>
+      </c>
+      <c r="D22" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>44858</v>
+      </c>
+      <c r="D23" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>44859</v>
+      </c>
+      <c r="D24" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>44860</v>
+      </c>
+      <c r="D25" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>44861</v>
+      </c>
+      <c r="D26" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>44862</v>
+      </c>
+      <c r="D27" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>44863</v>
+      </c>
+      <c r="D28" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>44864</v>
+      </c>
+      <c r="D29" s="6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>44865</v>
+      </c>
+      <c r="D30" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>44866</v>
+      </c>
+      <c r="D31" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>44867</v>
+      </c>
+      <c r="D32" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>44868</v>
+      </c>
+      <c r="D33" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>44869</v>
+      </c>
+      <c r="D34" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>44870</v>
+      </c>
+      <c r="D35" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>44871</v>
+      </c>
+      <c r="D36" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
+        <v>44872</v>
+      </c>
+      <c r="D37" s="6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>44873</v>
+      </c>
+      <c r="D38" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <v>44874</v>
+      </c>
+      <c r="D39" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <v>44875</v>
+      </c>
+      <c r="D40" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <v>44876</v>
+      </c>
+      <c r="D41" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>44877</v>
+      </c>
+      <c r="D42" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
+        <v>44878</v>
+      </c>
+      <c r="D43" s="6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
+        <v>44879</v>
+      </c>
+      <c r="D44" s="6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
+        <v>44880</v>
+      </c>
+      <c r="D45" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
+        <v>44881</v>
+      </c>
+      <c r="D46" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
+        <v>44882</v>
+      </c>
+      <c r="D47" s="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
+        <v>44883</v>
+      </c>
+      <c r="D48" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
+        <v>44884</v>
+      </c>
+      <c r="D49" s="6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
+        <v>44885</v>
+      </c>
+      <c r="D50" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
+        <v>44886</v>
+      </c>
+      <c r="D51" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
+        <v>44887</v>
+      </c>
+      <c r="D52" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
+        <v>44888</v>
+      </c>
+      <c r="D53" s="6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
+        <v>44889</v>
+      </c>
+      <c r="D54" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
+        <v>44890</v>
+      </c>
+      <c r="D55" s="6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
+        <v>44891</v>
+      </c>
+      <c r="D56" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
+        <v>44892</v>
+      </c>
+      <c r="D57" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="3">
+        <v>44893</v>
+      </c>
+      <c r="D58" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="3">
+        <v>44894</v>
+      </c>
+      <c r="D59" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="3">
+        <v>44895</v>
+      </c>
+      <c r="D60" s="6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="3">
+        <v>44896</v>
+      </c>
+      <c r="D61" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="3">
+        <v>44897</v>
+      </c>
+      <c r="D62" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="3">
+        <v>44898</v>
+      </c>
+      <c r="D63" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="3">
+        <v>44899</v>
+      </c>
+      <c r="D64" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="3">
+        <v>44900</v>
+      </c>
+      <c r="D65" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="3">
+        <v>44901</v>
+      </c>
+      <c r="D66" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="3">
+        <v>44902</v>
+      </c>
+      <c r="D67" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="3">
+        <v>44903</v>
+      </c>
+      <c r="D68" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="3">
+        <v>44904</v>
+      </c>
+      <c r="D69" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="3">
+        <v>44905</v>
+      </c>
+      <c r="D70" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="3">
+        <v>44906</v>
+      </c>
+      <c r="D71" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="3">
+        <v>44907</v>
+      </c>
+      <c r="D72" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="3">
+        <v>44908</v>
+      </c>
+      <c r="D73" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="3">
+        <v>44909</v>
+      </c>
+      <c r="D74" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="3">
+        <v>44910</v>
+      </c>
+      <c r="D75" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="3">
+        <v>44911</v>
+      </c>
+      <c r="D76" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="3">
+        <v>44912</v>
+      </c>
+      <c r="D77" s="6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="3">
+        <v>44913</v>
+      </c>
+      <c r="D78" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="3">
+        <v>44914</v>
+      </c>
+      <c r="D79" s="6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="3">
+        <v>44915</v>
+      </c>
+      <c r="D80" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="3">
+        <v>44916</v>
+      </c>
+      <c r="D81" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="3">
+        <v>44917</v>
+      </c>
+      <c r="D82" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="3">
+        <v>44918</v>
+      </c>
+      <c r="D83" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="3">
+        <v>44919</v>
+      </c>
+      <c r="D84" s="6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="3">
+        <v>44920</v>
+      </c>
+      <c r="D85" s="6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="3">
+        <v>44921</v>
+      </c>
+      <c r="D86" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="3">
+        <v>44922</v>
+      </c>
+      <c r="D87" s="6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="3">
+        <v>44923</v>
+      </c>
+      <c r="D88" s="6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="3">
+        <v>44924</v>
+      </c>
+      <c r="D89" s="6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="3">
+        <v>44925</v>
+      </c>
+      <c r="D90" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D91" s="6">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/miles.xlsx
+++ b/miles.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{720E01B1-B93A-48B7-B4CE-53A4B8926CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="3" r:id="rId1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,7 +169,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,26 +202,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,23 +237,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -447,19 +412,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" style="4" customWidth="1"/>
-    <col min="2" max="3" width="18.7265625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="4" customWidth="1"/>
+    <col min="2" max="3" width="18.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -473,7 +438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>44827</v>
       </c>
@@ -487,7 +452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>44829</v>
       </c>
@@ -501,7 +466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>44833</v>
       </c>
@@ -515,7 +480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>44836</v>
       </c>
@@ -529,7 +494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>44837</v>
       </c>
@@ -543,7 +508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>44840</v>
       </c>
@@ -557,7 +522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>44841</v>
       </c>
@@ -571,7 +536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>44842</v>
       </c>
@@ -585,7 +550,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>44844</v>
       </c>
@@ -599,7 +564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>44846</v>
       </c>
@@ -613,648 +578,630 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
-        <v>44847</v>
+        <v>44850</v>
+      </c>
+      <c r="B12" s="5">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5">
+        <v>35.869999999999997</v>
       </c>
       <c r="D12" s="6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
-        <v>44848</v>
+        <v>44851</v>
       </c>
       <c r="D13" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
-        <v>44849</v>
+        <v>44852</v>
       </c>
       <c r="D14" s="6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
-        <v>44850</v>
+        <v>44853</v>
       </c>
       <c r="D15" s="6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
-        <v>44851</v>
+        <v>44854</v>
       </c>
       <c r="D16" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
-        <v>44852</v>
+        <v>44855</v>
       </c>
       <c r="D17" s="6">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
-        <v>44853</v>
+        <v>44856</v>
       </c>
       <c r="D18" s="6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
-        <v>44854</v>
+        <v>44857</v>
       </c>
       <c r="D19" s="6">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
-        <v>44855</v>
+        <v>44858</v>
       </c>
       <c r="D20" s="6">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
-        <v>44856</v>
+        <v>44859</v>
       </c>
       <c r="D21" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
-        <v>44857</v>
+        <v>44860</v>
       </c>
       <c r="D22" s="6">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
-        <v>44858</v>
+        <v>44861</v>
       </c>
       <c r="D23" s="6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>44859</v>
+        <v>44862</v>
       </c>
       <c r="D24" s="6">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>44860</v>
+        <v>44863</v>
       </c>
       <c r="D25" s="6">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>44861</v>
+        <v>44864</v>
       </c>
       <c r="D26" s="6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>44862</v>
+        <v>44865</v>
       </c>
       <c r="D27" s="6">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>44863</v>
+        <v>44866</v>
       </c>
       <c r="D28" s="6">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>44864</v>
+        <v>44867</v>
       </c>
       <c r="D29" s="6">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>44865</v>
+        <v>44868</v>
       </c>
       <c r="D30" s="6">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>44866</v>
+        <v>44869</v>
       </c>
       <c r="D31" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>44867</v>
+        <v>44870</v>
       </c>
       <c r="D32" s="6">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>44868</v>
+        <v>44871</v>
       </c>
       <c r="D33" s="6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>44869</v>
+        <v>44872</v>
       </c>
       <c r="D34" s="6">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>44870</v>
+        <v>44873</v>
       </c>
       <c r="D35" s="6">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>44871</v>
+        <v>44874</v>
       </c>
       <c r="D36" s="6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>44872</v>
+        <v>44875</v>
       </c>
       <c r="D37" s="6">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
-        <v>44873</v>
+        <v>44876</v>
       </c>
       <c r="D38" s="6">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
-        <v>44874</v>
+        <v>44877</v>
       </c>
       <c r="D39" s="6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
-        <v>44875</v>
+        <v>44878</v>
       </c>
       <c r="D40" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>44876</v>
+        <v>44879</v>
       </c>
       <c r="D41" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>44877</v>
+        <v>44880</v>
       </c>
       <c r="D42" s="6">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>44878</v>
+        <v>44881</v>
       </c>
       <c r="D43" s="6">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>44879</v>
+        <v>44882</v>
       </c>
       <c r="D44" s="6">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>44880</v>
+        <v>44883</v>
       </c>
       <c r="D45" s="6">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>44881</v>
+        <v>44884</v>
       </c>
       <c r="D46" s="6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>44882</v>
+        <v>44885</v>
       </c>
       <c r="D47" s="6">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>44883</v>
+        <v>44886</v>
       </c>
       <c r="D48" s="6">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>44884</v>
+        <v>44887</v>
       </c>
       <c r="D49" s="6">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>44885</v>
+        <v>44888</v>
       </c>
       <c r="D50" s="6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>44886</v>
+        <v>44889</v>
       </c>
       <c r="D51" s="6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>44887</v>
+        <v>44890</v>
       </c>
       <c r="D52" s="6">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>44888</v>
+        <v>44891</v>
       </c>
       <c r="D53" s="6">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>44889</v>
+        <v>44892</v>
       </c>
       <c r="D54" s="6">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="D55" s="6">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>44891</v>
+        <v>44894</v>
       </c>
       <c r="D56" s="6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>44892</v>
+        <v>44895</v>
       </c>
       <c r="D57" s="6">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>44893</v>
+        <v>44896</v>
       </c>
       <c r="D58" s="6">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>44894</v>
+        <v>44897</v>
       </c>
       <c r="D59" s="6">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>44895</v>
+        <v>44898</v>
       </c>
       <c r="D60" s="6">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>44896</v>
+        <v>44899</v>
       </c>
       <c r="D61" s="6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>44897</v>
+        <v>44900</v>
       </c>
       <c r="D62" s="6">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>44898</v>
+        <v>44901</v>
       </c>
       <c r="D63" s="6">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>44899</v>
+        <v>44902</v>
       </c>
       <c r="D64" s="6">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>44900</v>
+        <v>44903</v>
       </c>
       <c r="D65" s="6">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>44901</v>
+        <v>44904</v>
       </c>
       <c r="D66" s="6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>44902</v>
+        <v>44905</v>
       </c>
       <c r="D67" s="6">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>44903</v>
+        <v>44906</v>
       </c>
       <c r="D68" s="6">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>44904</v>
+        <v>44907</v>
       </c>
       <c r="D69" s="6">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>44905</v>
+        <v>44908</v>
       </c>
       <c r="D70" s="6">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>44906</v>
+        <v>44909</v>
       </c>
       <c r="D71" s="6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>44907</v>
+        <v>44910</v>
       </c>
       <c r="D72" s="6">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>44908</v>
+        <v>44911</v>
       </c>
       <c r="D73" s="6">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>44909</v>
+        <v>44912</v>
       </c>
       <c r="D74" s="6">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>44910</v>
+        <v>44913</v>
       </c>
       <c r="D75" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>44911</v>
+        <v>44914</v>
       </c>
       <c r="D76" s="6">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>44912</v>
+        <v>44915</v>
       </c>
       <c r="D77" s="6">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>44913</v>
+        <v>44916</v>
       </c>
       <c r="D78" s="6">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>44914</v>
+        <v>44917</v>
       </c>
       <c r="D79" s="6">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>44915</v>
+        <v>44918</v>
       </c>
       <c r="D80" s="6">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>44916</v>
+        <v>44919</v>
       </c>
       <c r="D81" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>44917</v>
+        <v>44920</v>
       </c>
       <c r="D82" s="6">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>44918</v>
+        <v>44921</v>
       </c>
       <c r="D83" s="6">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>44919</v>
+        <v>44922</v>
       </c>
       <c r="D84" s="6">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>44920</v>
+        <v>44923</v>
       </c>
       <c r="D85" s="6">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>44921</v>
+        <v>44924</v>
       </c>
       <c r="D86" s="6">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>44922</v>
+        <v>44925</v>
       </c>
       <c r="D87" s="6">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>44923</v>
+        <v>44926</v>
       </c>
       <c r="D88" s="6">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="3">
-        <v>44924</v>
-      </c>
-      <c r="D89" s="6">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="3">
-        <v>44925</v>
-      </c>
-      <c r="D90" s="6">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D91" s="6">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
@@ -596,6 +596,12 @@
       <c r="A13" s="3">
         <v>44851</v>
       </c>
+      <c r="B13" s="5">
+        <v>2.08</v>
+      </c>
+      <c r="C13" s="5">
+        <v>37.950000000000003</v>
+      </c>
       <c r="D13" s="6">
         <v>25</v>
       </c>
@@ -604,6 +610,12 @@
       <c r="A14" s="3">
         <v>44852</v>
       </c>
+      <c r="B14" s="5">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="C14" s="5">
+        <v>40.130000000000003</v>
+      </c>
       <c r="D14" s="6">
         <v>26</v>
       </c>
@@ -792,7 +804,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>44876</v>
       </c>
@@ -800,7 +812,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>44877</v>
       </c>
@@ -808,7 +820,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>44878</v>
       </c>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BF9CBCA-7288-4098-BBBE-F004B2A6381E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="3" r:id="rId1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -169,7 +170,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -202,9 +203,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,6 +255,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -412,19 +447,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="4" customWidth="1"/>
-    <col min="2" max="3" width="18.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="18.7265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="17.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -438,7 +473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>44827</v>
       </c>
@@ -452,7 +487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>44829</v>
       </c>
@@ -466,7 +501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>44833</v>
       </c>
@@ -480,7 +515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>44836</v>
       </c>
@@ -494,7 +529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>44837</v>
       </c>
@@ -508,7 +543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>44840</v>
       </c>
@@ -522,7 +557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>44841</v>
       </c>
@@ -536,7 +571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>44842</v>
       </c>
@@ -550,7 +585,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>44844</v>
       </c>
@@ -564,7 +599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>44846</v>
       </c>
@@ -578,7 +613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>44850</v>
       </c>
@@ -592,7 +627,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>44851</v>
       </c>
@@ -606,9 +641,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
-        <v>44852</v>
+        <v>44853</v>
       </c>
       <c r="B14" s="5">
         <v>2.2599999999999998</v>
@@ -617,603 +652,593 @@
         <v>40.130000000000003</v>
       </c>
       <c r="D14" s="6">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
-        <v>44853</v>
+        <v>44855</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2.17</v>
+      </c>
+      <c r="C15" s="5">
+        <v>42.3</v>
       </c>
       <c r="D15" s="6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
-        <v>44854</v>
+        <v>44856</v>
       </c>
       <c r="D16" s="6">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
-        <v>44855</v>
+        <v>44857</v>
       </c>
       <c r="D17" s="6">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
-        <v>44856</v>
+        <v>44858</v>
       </c>
       <c r="D18" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
-        <v>44857</v>
+        <v>44859</v>
       </c>
       <c r="D19" s="6">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
-        <v>44858</v>
+        <v>44860</v>
       </c>
       <c r="D20" s="6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
-        <v>44859</v>
+        <v>44861</v>
       </c>
       <c r="D21" s="6">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
-        <v>44860</v>
+        <v>44862</v>
       </c>
       <c r="D22" s="6">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
-        <v>44861</v>
+        <v>44863</v>
       </c>
       <c r="D23" s="6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
-        <v>44862</v>
+        <v>44864</v>
       </c>
       <c r="D24" s="6">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
-        <v>44863</v>
+        <v>44865</v>
       </c>
       <c r="D25" s="6">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
-        <v>44864</v>
+        <v>44866</v>
       </c>
       <c r="D26" s="6">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
-        <v>44865</v>
+        <v>44867</v>
       </c>
       <c r="D27" s="6">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
-        <v>44866</v>
+        <v>44868</v>
       </c>
       <c r="D28" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
-        <v>44867</v>
+        <v>44869</v>
       </c>
       <c r="D29" s="6">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
-        <v>44868</v>
+        <v>44870</v>
       </c>
       <c r="D30" s="6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
-        <v>44869</v>
+        <v>44871</v>
       </c>
       <c r="D31" s="6">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
-        <v>44870</v>
+        <v>44872</v>
       </c>
       <c r="D32" s="6">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
-        <v>44871</v>
+        <v>44873</v>
       </c>
       <c r="D33" s="6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
-        <v>44872</v>
+        <v>44874</v>
       </c>
       <c r="D34" s="6">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
-        <v>44873</v>
+        <v>44875</v>
       </c>
       <c r="D35" s="6">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
-        <v>44874</v>
+        <v>44876</v>
       </c>
       <c r="D36" s="6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
-        <v>44875</v>
+        <v>44877</v>
       </c>
       <c r="D37" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
-        <v>44876</v>
+        <v>44878</v>
       </c>
       <c r="D38" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
-        <v>44877</v>
+        <v>44879</v>
       </c>
       <c r="D39" s="6">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
-        <v>44878</v>
+        <v>44880</v>
       </c>
       <c r="D40" s="6">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
-        <v>44879</v>
+        <v>44881</v>
       </c>
       <c r="D41" s="6">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
-        <v>44880</v>
+        <v>44882</v>
       </c>
       <c r="D42" s="6">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
-        <v>44881</v>
+        <v>44883</v>
       </c>
       <c r="D43" s="6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
-        <v>44882</v>
+        <v>44884</v>
       </c>
       <c r="D44" s="6">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
-        <v>44883</v>
+        <v>44885</v>
       </c>
       <c r="D45" s="6">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
-        <v>44884</v>
+        <v>44886</v>
       </c>
       <c r="D46" s="6">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
-        <v>44885</v>
+        <v>44887</v>
       </c>
       <c r="D47" s="6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
-        <v>44886</v>
+        <v>44888</v>
       </c>
       <c r="D48" s="6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
-        <v>44887</v>
+        <v>44889</v>
       </c>
       <c r="D49" s="6">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
-        <v>44888</v>
+        <v>44890</v>
       </c>
       <c r="D50" s="6">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
-        <v>44889</v>
+        <v>44891</v>
       </c>
       <c r="D51" s="6">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
-        <v>44890</v>
+        <v>44892</v>
       </c>
       <c r="D52" s="6">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
-        <v>44891</v>
+        <v>44893</v>
       </c>
       <c r="D53" s="6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
-        <v>44892</v>
+        <v>44894</v>
       </c>
       <c r="D54" s="6">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
-        <v>44893</v>
+        <v>44895</v>
       </c>
       <c r="D55" s="6">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
-        <v>44894</v>
+        <v>44896</v>
       </c>
       <c r="D56" s="6">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
-        <v>44895</v>
+        <v>44897</v>
       </c>
       <c r="D57" s="6">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
-        <v>44896</v>
+        <v>44898</v>
       </c>
       <c r="D58" s="6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
-        <v>44897</v>
+        <v>44899</v>
       </c>
       <c r="D59" s="6">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
-        <v>44898</v>
+        <v>44900</v>
       </c>
       <c r="D60" s="6">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
-        <v>44899</v>
+        <v>44901</v>
       </c>
       <c r="D61" s="6">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
-        <v>44900</v>
+        <v>44902</v>
       </c>
       <c r="D62" s="6">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
-        <v>44901</v>
+        <v>44903</v>
       </c>
       <c r="D63" s="6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
-        <v>44902</v>
+        <v>44904</v>
       </c>
       <c r="D64" s="6">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
-        <v>44903</v>
+        <v>44905</v>
       </c>
       <c r="D65" s="6">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
-        <v>44904</v>
+        <v>44906</v>
       </c>
       <c r="D66" s="6">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
-        <v>44905</v>
+        <v>44907</v>
       </c>
       <c r="D67" s="6">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
-        <v>44906</v>
+        <v>44908</v>
       </c>
       <c r="D68" s="6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
-        <v>44907</v>
+        <v>44909</v>
       </c>
       <c r="D69" s="6">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
-        <v>44908</v>
+        <v>44910</v>
       </c>
       <c r="D70" s="6">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
-        <v>44909</v>
+        <v>44911</v>
       </c>
       <c r="D71" s="6">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
-        <v>44910</v>
+        <v>44912</v>
       </c>
       <c r="D72" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
-        <v>44911</v>
+        <v>44913</v>
       </c>
       <c r="D73" s="6">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
-        <v>44912</v>
+        <v>44914</v>
       </c>
       <c r="D74" s="6">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
-        <v>44913</v>
+        <v>44915</v>
       </c>
       <c r="D75" s="6">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
-        <v>44914</v>
+        <v>44916</v>
       </c>
       <c r="D76" s="6">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
-        <v>44915</v>
+        <v>44917</v>
       </c>
       <c r="D77" s="6">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
-        <v>44916</v>
+        <v>44918</v>
       </c>
       <c r="D78" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
-        <v>44917</v>
+        <v>44919</v>
       </c>
       <c r="D79" s="6">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
-        <v>44918</v>
+        <v>44920</v>
       </c>
       <c r="D80" s="6">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
-        <v>44919</v>
+        <v>44921</v>
       </c>
       <c r="D81" s="6">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
-        <v>44920</v>
+        <v>44922</v>
       </c>
       <c r="D82" s="6">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
-        <v>44921</v>
+        <v>44923</v>
       </c>
       <c r="D83" s="6">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
-        <v>44922</v>
+        <v>44924</v>
       </c>
       <c r="D84" s="6">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
-        <v>44923</v>
+        <v>44925</v>
       </c>
       <c r="D85" s="6">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
-        <v>44924</v>
+        <v>44926</v>
       </c>
       <c r="D86" s="6">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
-        <v>44925</v>
-      </c>
-      <c r="D87" s="6">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D88" s="6">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1"/>
+  <autoFilter ref="A1:C1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BF9CBCA-7288-4098-BBBE-F004B2A6381E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F517995D-BC00-4C0A-9269-B2B8DFED7209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,9 +448,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -671,569 +673,551 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
-        <v>44856</v>
+        <v>44859</v>
+      </c>
+      <c r="B16" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="C16" s="5">
+        <v>45.4</v>
       </c>
       <c r="D16" s="6">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
-        <v>44857</v>
+        <v>44860</v>
       </c>
       <c r="D17" s="6">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
-        <v>44858</v>
+        <v>44861</v>
       </c>
       <c r="D18" s="6">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
-        <v>44859</v>
+        <v>44862</v>
       </c>
       <c r="D19" s="6">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
-        <v>44860</v>
+        <v>44863</v>
       </c>
       <c r="D20" s="6">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
-        <v>44861</v>
+        <v>44864</v>
       </c>
       <c r="D21" s="6">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
-        <v>44862</v>
+        <v>44865</v>
       </c>
       <c r="D22" s="6">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
-        <v>44863</v>
+        <v>44866</v>
       </c>
       <c r="D23" s="6">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
-        <v>44864</v>
+        <v>44867</v>
       </c>
       <c r="D24" s="6">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
-        <v>44865</v>
+        <v>44868</v>
       </c>
       <c r="D25" s="6">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
-        <v>44866</v>
+        <v>44869</v>
       </c>
       <c r="D26" s="6">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
-        <v>44867</v>
+        <v>44870</v>
       </c>
       <c r="D27" s="6">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
-        <v>44868</v>
+        <v>44871</v>
       </c>
       <c r="D28" s="6">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
-        <v>44869</v>
+        <v>44872</v>
       </c>
       <c r="D29" s="6">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
-        <v>44870</v>
+        <v>44873</v>
       </c>
       <c r="D30" s="6">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
-        <v>44871</v>
+        <v>44874</v>
       </c>
       <c r="D31" s="6">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
-        <v>44872</v>
+        <v>44875</v>
       </c>
       <c r="D32" s="6">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
-        <v>44873</v>
+        <v>44876</v>
       </c>
       <c r="D33" s="6">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
-        <v>44874</v>
+        <v>44877</v>
       </c>
       <c r="D34" s="6">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
-        <v>44875</v>
+        <v>44878</v>
       </c>
       <c r="D35" s="6">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
-        <v>44876</v>
+        <v>44879</v>
       </c>
       <c r="D36" s="6">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
-        <v>44877</v>
+        <v>44880</v>
       </c>
       <c r="D37" s="6">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
-        <v>44878</v>
+        <v>44881</v>
       </c>
       <c r="D38" s="6">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
-        <v>44879</v>
+        <v>44882</v>
       </c>
       <c r="D39" s="6">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
-        <v>44880</v>
+        <v>44883</v>
       </c>
       <c r="D40" s="6">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
-        <v>44881</v>
+        <v>44884</v>
       </c>
       <c r="D41" s="6">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
-        <v>44882</v>
+        <v>44885</v>
       </c>
       <c r="D42" s="6">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
-        <v>44883</v>
+        <v>44886</v>
       </c>
       <c r="D43" s="6">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
-        <v>44884</v>
+        <v>44887</v>
       </c>
       <c r="D44" s="6">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
-        <v>44885</v>
+        <v>44888</v>
       </c>
       <c r="D45" s="6">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
-        <v>44886</v>
+        <v>44889</v>
       </c>
       <c r="D46" s="6">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
-        <v>44887</v>
+        <v>44890</v>
       </c>
       <c r="D47" s="6">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
-        <v>44888</v>
+        <v>44891</v>
       </c>
       <c r="D48" s="6">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
-        <v>44889</v>
+        <v>44892</v>
       </c>
       <c r="D49" s="6">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="D50" s="6">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
-        <v>44891</v>
+        <v>44894</v>
       </c>
       <c r="D51" s="6">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
-        <v>44892</v>
+        <v>44895</v>
       </c>
       <c r="D52" s="6">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
-        <v>44893</v>
+        <v>44896</v>
       </c>
       <c r="D53" s="6">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
-        <v>44894</v>
+        <v>44897</v>
       </c>
       <c r="D54" s="6">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
-        <v>44895</v>
+        <v>44898</v>
       </c>
       <c r="D55" s="6">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
-        <v>44896</v>
+        <v>44899</v>
       </c>
       <c r="D56" s="6">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
-        <v>44897</v>
+        <v>44900</v>
       </c>
       <c r="D57" s="6">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
-        <v>44898</v>
+        <v>44901</v>
       </c>
       <c r="D58" s="6">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
-        <v>44899</v>
+        <v>44902</v>
       </c>
       <c r="D59" s="6">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
-        <v>44900</v>
+        <v>44903</v>
       </c>
       <c r="D60" s="6">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
-        <v>44901</v>
+        <v>44904</v>
       </c>
       <c r="D61" s="6">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
-        <v>44902</v>
+        <v>44905</v>
       </c>
       <c r="D62" s="6">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
-        <v>44903</v>
+        <v>44906</v>
       </c>
       <c r="D63" s="6">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
-        <v>44904</v>
+        <v>44907</v>
       </c>
       <c r="D64" s="6">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
-        <v>44905</v>
+        <v>44908</v>
       </c>
       <c r="D65" s="6">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
-        <v>44906</v>
+        <v>44909</v>
       </c>
       <c r="D66" s="6">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
-        <v>44907</v>
+        <v>44910</v>
       </c>
       <c r="D67" s="6">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
-        <v>44908</v>
+        <v>44911</v>
       </c>
       <c r="D68" s="6">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
-        <v>44909</v>
+        <v>44912</v>
       </c>
       <c r="D69" s="6">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
-        <v>44910</v>
+        <v>44913</v>
       </c>
       <c r="D70" s="6">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
-        <v>44911</v>
+        <v>44914</v>
       </c>
       <c r="D71" s="6">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
-        <v>44912</v>
+        <v>44915</v>
       </c>
       <c r="D72" s="6">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
-        <v>44913</v>
+        <v>44916</v>
       </c>
       <c r="D73" s="6">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
-        <v>44914</v>
+        <v>44917</v>
       </c>
       <c r="D74" s="6">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
-        <v>44915</v>
+        <v>44918</v>
       </c>
       <c r="D75" s="6">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
-        <v>44916</v>
+        <v>44919</v>
       </c>
       <c r="D76" s="6">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
-        <v>44917</v>
+        <v>44920</v>
       </c>
       <c r="D77" s="6">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
-        <v>44918</v>
+        <v>44921</v>
       </c>
       <c r="D78" s="6">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
-        <v>44919</v>
+        <v>44922</v>
       </c>
       <c r="D79" s="6">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
-        <v>44920</v>
+        <v>44923</v>
       </c>
       <c r="D80" s="6">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
-        <v>44921</v>
+        <v>44924</v>
       </c>
       <c r="D81" s="6">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
-        <v>44922</v>
+        <v>44925</v>
       </c>
       <c r="D82" s="6">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
-        <v>44923</v>
+        <v>44926</v>
       </c>
       <c r="D83" s="6">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="3">
-        <v>44924</v>
-      </c>
-      <c r="D84" s="6">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="3">
-        <v>44925</v>
-      </c>
-      <c r="D85" s="6">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D86" s="6">
         <v>100</v>
       </c>
     </row>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F517995D-BC00-4C0A-9269-B2B8DFED7209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AD50C5-0E66-4BFA-8D2A-21A22A2C9EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,7 +451,7 @@
   <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -689,6 +689,12 @@
       <c r="A17" s="3">
         <v>44860</v>
       </c>
+      <c r="B17" s="5">
+        <v>2.12</v>
+      </c>
+      <c r="C17" s="5">
+        <v>47.52</v>
+      </c>
       <c r="D17" s="6">
         <v>34</v>
       </c>
@@ -696,6 +702,12 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>44861</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2.15</v>
+      </c>
+      <c r="C18" s="5">
+        <v>49.67</v>
       </c>
       <c r="D18" s="6">
         <v>35</v>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AD50C5-0E66-4BFA-8D2A-21A22A2C9EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="3" r:id="rId1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,7 +169,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,26 +202,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,23 +237,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -447,21 +412,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" style="4" customWidth="1"/>
-    <col min="2" max="3" width="18.7265625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="4" customWidth="1"/>
+    <col min="2" max="3" width="18.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -475,7 +440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>44827</v>
       </c>
@@ -489,7 +454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>44829</v>
       </c>
@@ -503,7 +468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>44833</v>
       </c>
@@ -517,7 +482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>44836</v>
       </c>
@@ -531,7 +496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>44837</v>
       </c>
@@ -545,7 +510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>44840</v>
       </c>
@@ -559,7 +524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>44841</v>
       </c>
@@ -573,7 +538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>44842</v>
       </c>
@@ -587,7 +552,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>44844</v>
       </c>
@@ -601,7 +566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>44846</v>
       </c>
@@ -615,7 +580,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>44850</v>
       </c>
@@ -629,7 +594,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>44851</v>
       </c>
@@ -643,7 +608,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>44853</v>
       </c>
@@ -657,7 +622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>44855</v>
       </c>
@@ -671,7 +636,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>44859</v>
       </c>
@@ -685,7 +650,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>44860</v>
       </c>
@@ -699,7 +664,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>44861</v>
       </c>
@@ -713,528 +678,502 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
-        <v>44862</v>
+        <v>44866</v>
+      </c>
+      <c r="B19" s="5">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5">
+        <v>51.67</v>
       </c>
       <c r="D19" s="6">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
-        <v>44863</v>
+        <v>44867</v>
       </c>
       <c r="D20" s="6">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
-        <v>44864</v>
+        <v>44868</v>
       </c>
       <c r="D21" s="6">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
-        <v>44865</v>
+        <v>44869</v>
       </c>
       <c r="D22" s="6">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
-        <v>44866</v>
+        <v>44870</v>
       </c>
       <c r="D23" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
-        <v>44867</v>
+        <v>44871</v>
       </c>
       <c r="D24" s="6">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
-        <v>44868</v>
+        <v>44872</v>
       </c>
       <c r="D25" s="6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
-        <v>44869</v>
+        <v>44873</v>
       </c>
       <c r="D26" s="6">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>44870</v>
+        <v>44874</v>
       </c>
       <c r="D27" s="6">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>44871</v>
+        <v>44875</v>
       </c>
       <c r="D28" s="6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>44872</v>
+        <v>44876</v>
       </c>
       <c r="D29" s="6">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>44873</v>
+        <v>44877</v>
       </c>
       <c r="D30" s="6">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>44874</v>
+        <v>44878</v>
       </c>
       <c r="D31" s="6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>44875</v>
+        <v>44879</v>
       </c>
       <c r="D32" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>44876</v>
+        <v>44880</v>
       </c>
       <c r="D33" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>44877</v>
+        <v>44881</v>
       </c>
       <c r="D34" s="6">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>44878</v>
+        <v>44882</v>
       </c>
       <c r="D35" s="6">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>44879</v>
+        <v>44883</v>
       </c>
       <c r="D36" s="6">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>44880</v>
+        <v>44884</v>
       </c>
       <c r="D37" s="6">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>44881</v>
+        <v>44885</v>
       </c>
       <c r="D38" s="6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>44882</v>
+        <v>44886</v>
       </c>
       <c r="D39" s="6">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>44883</v>
+        <v>44887</v>
       </c>
       <c r="D40" s="6">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>44884</v>
+        <v>44888</v>
       </c>
       <c r="D41" s="6">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>44885</v>
+        <v>44889</v>
       </c>
       <c r="D42" s="6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>44886</v>
+        <v>44890</v>
       </c>
       <c r="D43" s="6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>44887</v>
+        <v>44891</v>
       </c>
       <c r="D44" s="6">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>44888</v>
+        <v>44892</v>
       </c>
       <c r="D45" s="6">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>44889</v>
+        <v>44893</v>
       </c>
       <c r="D46" s="6">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>44890</v>
+        <v>44894</v>
       </c>
       <c r="D47" s="6">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>44891</v>
+        <v>44895</v>
       </c>
       <c r="D48" s="6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>44892</v>
+        <v>44896</v>
       </c>
       <c r="D49" s="6">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>44893</v>
+        <v>44897</v>
       </c>
       <c r="D50" s="6">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>44894</v>
+        <v>44898</v>
       </c>
       <c r="D51" s="6">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>44895</v>
+        <v>44899</v>
       </c>
       <c r="D52" s="6">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>44896</v>
+        <v>44900</v>
       </c>
       <c r="D53" s="6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>44897</v>
+        <v>44901</v>
       </c>
       <c r="D54" s="6">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>44898</v>
+        <v>44902</v>
       </c>
       <c r="D55" s="6">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>44899</v>
+        <v>44903</v>
       </c>
       <c r="D56" s="6">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>44900</v>
+        <v>44904</v>
       </c>
       <c r="D57" s="6">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>44901</v>
+        <v>44905</v>
       </c>
       <c r="D58" s="6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>44902</v>
+        <v>44906</v>
       </c>
       <c r="D59" s="6">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>44903</v>
+        <v>44907</v>
       </c>
       <c r="D60" s="6">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>44904</v>
+        <v>44908</v>
       </c>
       <c r="D61" s="6">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>44905</v>
+        <v>44909</v>
       </c>
       <c r="D62" s="6">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>44906</v>
+        <v>44910</v>
       </c>
       <c r="D63" s="6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>44907</v>
+        <v>44911</v>
       </c>
       <c r="D64" s="6">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>44908</v>
+        <v>44912</v>
       </c>
       <c r="D65" s="6">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>44909</v>
+        <v>44913</v>
       </c>
       <c r="D66" s="6">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>44910</v>
+        <v>44914</v>
       </c>
       <c r="D67" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>44911</v>
+        <v>44915</v>
       </c>
       <c r="D68" s="6">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>44912</v>
+        <v>44916</v>
       </c>
       <c r="D69" s="6">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>44913</v>
+        <v>44917</v>
       </c>
       <c r="D70" s="6">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>44914</v>
+        <v>44918</v>
       </c>
       <c r="D71" s="6">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>44915</v>
+        <v>44919</v>
       </c>
       <c r="D72" s="6">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>44916</v>
+        <v>44920</v>
       </c>
       <c r="D73" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>44917</v>
+        <v>44921</v>
       </c>
       <c r="D74" s="6">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>44918</v>
+        <v>44922</v>
       </c>
       <c r="D75" s="6">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>44919</v>
+        <v>44923</v>
       </c>
       <c r="D76" s="6">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>44920</v>
+        <v>44924</v>
       </c>
       <c r="D77" s="6">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>44921</v>
+        <v>44925</v>
       </c>
       <c r="D78" s="6">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>44922</v>
+        <v>44926</v>
       </c>
       <c r="D79" s="6">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="3">
-        <v>44923</v>
-      </c>
-      <c r="D80" s="6">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="3">
-        <v>44924</v>
-      </c>
-      <c r="D81" s="6">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="3">
-        <v>44925</v>
-      </c>
-      <c r="D82" s="6">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D83" s="6">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -415,9 +415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
@@ -696,6 +694,12 @@
       <c r="A20" s="3">
         <v>44867</v>
       </c>
+      <c r="B20" s="5">
+        <v>2</v>
+      </c>
+      <c r="C20" s="5">
+        <v>53.67</v>
+      </c>
       <c r="D20" s="6">
         <v>41</v>
       </c>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -415,7 +415,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
@@ -708,6 +710,12 @@
       <c r="A21" s="3">
         <v>44868</v>
       </c>
+      <c r="B21" s="5">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5">
+        <v>55.67</v>
+      </c>
       <c r="D21" s="6">
         <v>42</v>
       </c>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -415,9 +415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
@@ -724,6 +722,12 @@
       <c r="A22" s="3">
         <v>44869</v>
       </c>
+      <c r="B22" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="C22" s="5">
+        <v>57.77</v>
+      </c>
       <c r="D22" s="6">
         <v>43</v>
       </c>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -736,6 +736,12 @@
       <c r="A23" s="3">
         <v>44870</v>
       </c>
+      <c r="B23" s="5">
+        <v>2</v>
+      </c>
+      <c r="C23" s="5">
+        <v>59.77</v>
+      </c>
       <c r="D23" s="6">
         <v>44</v>
       </c>
@@ -743,6 +749,12 @@
     <row r="24" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>44871</v>
+      </c>
+      <c r="B24" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="C24" s="5">
+        <v>62.17</v>
       </c>
       <c r="D24" s="6">
         <v>45</v>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -415,7 +415,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
@@ -764,6 +766,12 @@
       <c r="A25" s="3">
         <v>44872</v>
       </c>
+      <c r="B25" s="5">
+        <v>2.71</v>
+      </c>
+      <c r="C25" s="5">
+        <v>64.88</v>
+      </c>
       <c r="D25" s="6">
         <v>46</v>
       </c>
@@ -771,6 +779,12 @@
     <row r="26" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>44873</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="C26" s="5">
+        <v>65.14</v>
       </c>
       <c r="D26" s="6">
         <v>47</v>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -706,7 +706,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>44868</v>
       </c>
@@ -720,7 +720,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>44869</v>
       </c>
@@ -734,7 +734,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>44870</v>
       </c>
@@ -748,7 +748,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>44871</v>
       </c>
@@ -762,7 +762,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>44872</v>
       </c>
@@ -776,7 +776,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>44873</v>
       </c>
@@ -794,6 +794,12 @@
       <c r="A27" s="3">
         <v>44874</v>
       </c>
+      <c r="B27" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="C27" s="5">
+        <v>67.239999999999995</v>
+      </c>
       <c r="D27" s="6">
         <v>48</v>
       </c>
@@ -801,6 +807,12 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>44875</v>
+      </c>
+      <c r="B28" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="C28" s="5">
+        <v>68.989999999999995</v>
       </c>
       <c r="D28" s="6">
         <v>49</v>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -822,6 +822,12 @@
       <c r="A29" s="3">
         <v>44876</v>
       </c>
+      <c r="B29" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="C29" s="5">
+        <v>71.489999999999995</v>
+      </c>
       <c r="D29" s="6">
         <v>50</v>
       </c>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -413,11 +413,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
@@ -836,399 +834,403 @@
       <c r="A30" s="3">
         <v>44877</v>
       </c>
+      <c r="B30" s="5">
+        <v>2.41</v>
+      </c>
+      <c r="C30" s="5">
+        <v>73.900000000000006</v>
+      </c>
       <c r="D30" s="6">
         <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>44878</v>
+        <v>44879</v>
+      </c>
+      <c r="B31" s="5">
+        <v>2.21</v>
+      </c>
+      <c r="C31" s="5">
+        <v>76.11</v>
       </c>
       <c r="D31" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>44879</v>
+        <v>44880</v>
       </c>
       <c r="D32" s="6">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="D33" s="6">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>44881</v>
+        <v>44882</v>
       </c>
       <c r="D34" s="6">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>44882</v>
+        <v>44883</v>
       </c>
       <c r="D35" s="6">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>44883</v>
+        <v>44884</v>
       </c>
       <c r="D36" s="6">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>44884</v>
+        <v>44885</v>
       </c>
       <c r="D37" s="6">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>44885</v>
+        <v>44886</v>
       </c>
       <c r="D38" s="6">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>44886</v>
+        <v>44887</v>
       </c>
       <c r="D39" s="6">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="D40" s="6">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>44888</v>
+        <v>44889</v>
       </c>
       <c r="D41" s="6">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="D42" s="6">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>44890</v>
+        <v>44891</v>
       </c>
       <c r="D43" s="6">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>44891</v>
+        <v>44892</v>
       </c>
       <c r="D44" s="6">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>44892</v>
+        <v>44893</v>
       </c>
       <c r="D45" s="6">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="D46" s="6">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="D47" s="6">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="D48" s="6">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>44896</v>
+        <v>44897</v>
       </c>
       <c r="D49" s="6">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>44897</v>
+        <v>44898</v>
       </c>
       <c r="D50" s="6">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>44898</v>
+        <v>44899</v>
       </c>
       <c r="D51" s="6">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>44899</v>
+        <v>44900</v>
       </c>
       <c r="D52" s="6">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>44900</v>
+        <v>44901</v>
       </c>
       <c r="D53" s="6">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>44901</v>
+        <v>44902</v>
       </c>
       <c r="D54" s="6">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>44902</v>
+        <v>44903</v>
       </c>
       <c r="D55" s="6">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>44903</v>
+        <v>44904</v>
       </c>
       <c r="D56" s="6">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>44904</v>
+        <v>44905</v>
       </c>
       <c r="D57" s="6">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>44905</v>
+        <v>44906</v>
       </c>
       <c r="D58" s="6">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>44906</v>
+        <v>44907</v>
       </c>
       <c r="D59" s="6">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>44907</v>
+        <v>44908</v>
       </c>
       <c r="D60" s="6">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>44908</v>
+        <v>44909</v>
       </c>
       <c r="D61" s="6">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>44909</v>
+        <v>44910</v>
       </c>
       <c r="D62" s="6">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>44910</v>
+        <v>44911</v>
       </c>
       <c r="D63" s="6">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>44911</v>
+        <v>44912</v>
       </c>
       <c r="D64" s="6">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>44912</v>
+        <v>44913</v>
       </c>
       <c r="D65" s="6">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>44913</v>
+        <v>44914</v>
       </c>
       <c r="D66" s="6">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="D67" s="6">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="D68" s="6">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>44916</v>
+        <v>44917</v>
       </c>
       <c r="D69" s="6">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>44917</v>
+        <v>44918</v>
       </c>
       <c r="D70" s="6">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>44918</v>
+        <v>44919</v>
       </c>
       <c r="D71" s="6">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>44919</v>
+        <v>44920</v>
       </c>
       <c r="D72" s="6">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>44920</v>
+        <v>44921</v>
       </c>
       <c r="D73" s="6">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>44921</v>
+        <v>44922</v>
       </c>
       <c r="D74" s="6">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>44922</v>
+        <v>44923</v>
       </c>
       <c r="D75" s="6">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>44923</v>
+        <v>44924</v>
       </c>
       <c r="D76" s="6">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>44924</v>
+        <v>44925</v>
       </c>
       <c r="D77" s="6">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>44925</v>
+        <v>44926</v>
       </c>
       <c r="D78" s="6">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D79" s="6">
         <v>100</v>
       </c>
     </row>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -415,7 +415,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
@@ -862,6 +864,12 @@
       <c r="A32" s="3">
         <v>44880</v>
       </c>
+      <c r="B32" s="5">
+        <v>2</v>
+      </c>
+      <c r="C32" s="5">
+        <v>78.11</v>
+      </c>
       <c r="D32" s="6">
         <v>54</v>
       </c>
@@ -869,6 +877,12 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>44881</v>
+      </c>
+      <c r="B33" s="5">
+        <v>2.11</v>
+      </c>
+      <c r="C33" s="5">
+        <v>80.22</v>
       </c>
       <c r="D33" s="6">
         <v>55</v>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -413,11 +413,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
@@ -890,361 +888,365 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>44882</v>
+        <v>44883</v>
+      </c>
+      <c r="B34" s="5">
+        <v>2</v>
+      </c>
+      <c r="C34" s="5">
+        <v>82.22</v>
       </c>
       <c r="D34" s="6">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>44883</v>
+        <v>44884</v>
+      </c>
+      <c r="B35" s="5">
+        <v>2</v>
+      </c>
+      <c r="C35" s="5">
+        <v>84.22</v>
       </c>
       <c r="D35" s="6">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>44884</v>
+        <v>44885</v>
       </c>
       <c r="D36" s="6">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>44885</v>
+        <v>44886</v>
       </c>
       <c r="D37" s="6">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>44886</v>
+        <v>44887</v>
       </c>
       <c r="D38" s="6">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="D39" s="6">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>44888</v>
+        <v>44889</v>
       </c>
       <c r="D40" s="6">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="D41" s="6">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>44890</v>
+        <v>44891</v>
       </c>
       <c r="D42" s="6">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>44891</v>
+        <v>44892</v>
       </c>
       <c r="D43" s="6">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>44892</v>
+        <v>44893</v>
       </c>
       <c r="D44" s="6">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="D45" s="6">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="D46" s="6">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="D47" s="6">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>44896</v>
+        <v>44897</v>
       </c>
       <c r="D48" s="6">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>44897</v>
+        <v>44898</v>
       </c>
       <c r="D49" s="6">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>44898</v>
+        <v>44899</v>
       </c>
       <c r="D50" s="6">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>44899</v>
+        <v>44900</v>
       </c>
       <c r="D51" s="6">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>44900</v>
+        <v>44901</v>
       </c>
       <c r="D52" s="6">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>44901</v>
+        <v>44902</v>
       </c>
       <c r="D53" s="6">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>44902</v>
+        <v>44903</v>
       </c>
       <c r="D54" s="6">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>44903</v>
+        <v>44904</v>
       </c>
       <c r="D55" s="6">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>44904</v>
+        <v>44905</v>
       </c>
       <c r="D56" s="6">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>44905</v>
+        <v>44906</v>
       </c>
       <c r="D57" s="6">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>44906</v>
+        <v>44907</v>
       </c>
       <c r="D58" s="6">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>44907</v>
+        <v>44908</v>
       </c>
       <c r="D59" s="6">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>44908</v>
+        <v>44909</v>
       </c>
       <c r="D60" s="6">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>44909</v>
+        <v>44910</v>
       </c>
       <c r="D61" s="6">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>44910</v>
+        <v>44911</v>
       </c>
       <c r="D62" s="6">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>44911</v>
+        <v>44912</v>
       </c>
       <c r="D63" s="6">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>44912</v>
+        <v>44913</v>
       </c>
       <c r="D64" s="6">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>44913</v>
+        <v>44914</v>
       </c>
       <c r="D65" s="6">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="D66" s="6">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="D67" s="6">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>44916</v>
+        <v>44917</v>
       </c>
       <c r="D68" s="6">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>44917</v>
+        <v>44918</v>
       </c>
       <c r="D69" s="6">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>44918</v>
+        <v>44919</v>
       </c>
       <c r="D70" s="6">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>44919</v>
+        <v>44920</v>
       </c>
       <c r="D71" s="6">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>44920</v>
+        <v>44921</v>
       </c>
       <c r="D72" s="6">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>44921</v>
+        <v>44922</v>
       </c>
       <c r="D73" s="6">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>44922</v>
+        <v>44923</v>
       </c>
       <c r="D74" s="6">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>44923</v>
+        <v>44924</v>
       </c>
       <c r="D75" s="6">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>44924</v>
+        <v>44925</v>
       </c>
       <c r="D76" s="6">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>44925</v>
+        <v>44926</v>
       </c>
       <c r="D77" s="6">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D78" s="6">
         <v>100</v>
       </c>
     </row>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -413,9 +413,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Y46" sqref="Y46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
@@ -916,337 +918,327 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>44885</v>
+        <v>44887</v>
+      </c>
+      <c r="B36" s="5">
+        <v>2.71</v>
+      </c>
+      <c r="C36" s="5">
+        <v>86.93</v>
       </c>
       <c r="D36" s="6">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>44886</v>
+        <v>44888</v>
       </c>
       <c r="D37" s="6">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>44887</v>
+        <v>44889</v>
       </c>
       <c r="D38" s="6">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>44888</v>
+        <v>44890</v>
       </c>
       <c r="D39" s="6">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>44889</v>
+        <v>44891</v>
       </c>
       <c r="D40" s="6">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>44890</v>
+        <v>44892</v>
       </c>
       <c r="D41" s="6">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>44891</v>
+        <v>44893</v>
       </c>
       <c r="D42" s="6">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>44892</v>
+        <v>44894</v>
       </c>
       <c r="D43" s="6">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>44893</v>
+        <v>44895</v>
       </c>
       <c r="D44" s="6">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>44894</v>
+        <v>44896</v>
       </c>
       <c r="D45" s="6">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>44895</v>
+        <v>44897</v>
       </c>
       <c r="D46" s="6">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>44896</v>
+        <v>44898</v>
       </c>
       <c r="D47" s="6">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>44897</v>
+        <v>44899</v>
       </c>
       <c r="D48" s="6">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>44898</v>
+        <v>44900</v>
       </c>
       <c r="D49" s="6">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>44899</v>
+        <v>44901</v>
       </c>
       <c r="D50" s="6">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>44900</v>
+        <v>44902</v>
       </c>
       <c r="D51" s="6">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>44901</v>
+        <v>44903</v>
       </c>
       <c r="D52" s="6">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>44902</v>
+        <v>44904</v>
       </c>
       <c r="D53" s="6">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>44903</v>
+        <v>44905</v>
       </c>
       <c r="D54" s="6">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>44904</v>
+        <v>44906</v>
       </c>
       <c r="D55" s="6">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>44905</v>
+        <v>44907</v>
       </c>
       <c r="D56" s="6">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>44906</v>
+        <v>44908</v>
       </c>
       <c r="D57" s="6">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>44907</v>
+        <v>44909</v>
       </c>
       <c r="D58" s="6">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>44908</v>
+        <v>44910</v>
       </c>
       <c r="D59" s="6">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>44909</v>
+        <v>44911</v>
       </c>
       <c r="D60" s="6">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>44910</v>
+        <v>44912</v>
       </c>
       <c r="D61" s="6">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>44911</v>
+        <v>44913</v>
       </c>
       <c r="D62" s="6">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>44912</v>
+        <v>44914</v>
       </c>
       <c r="D63" s="6">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>44913</v>
+        <v>44915</v>
       </c>
       <c r="D64" s="6">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>44914</v>
+        <v>44916</v>
       </c>
       <c r="D65" s="6">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>44915</v>
+        <v>44917</v>
       </c>
       <c r="D66" s="6">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>44916</v>
+        <v>44918</v>
       </c>
       <c r="D67" s="6">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>44917</v>
+        <v>44919</v>
       </c>
       <c r="D68" s="6">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>44918</v>
+        <v>44920</v>
       </c>
       <c r="D69" s="6">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>44919</v>
+        <v>44921</v>
       </c>
       <c r="D70" s="6">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>44920</v>
+        <v>44922</v>
       </c>
       <c r="D71" s="6">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>44921</v>
+        <v>44923</v>
       </c>
       <c r="D72" s="6">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>44922</v>
+        <v>44924</v>
       </c>
       <c r="D73" s="6">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>44923</v>
+        <v>44925</v>
       </c>
       <c r="D74" s="6">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>44924</v>
+        <v>44926</v>
       </c>
       <c r="D75" s="6">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
-        <v>44925</v>
-      </c>
-      <c r="D76" s="6">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D77" s="6">
         <v>100</v>
       </c>
     </row>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="Y46" sqref="Y46"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -921,10 +921,10 @@
         <v>44887</v>
       </c>
       <c r="B36" s="5">
-        <v>2.71</v>
+        <v>4.71</v>
       </c>
       <c r="C36" s="5">
-        <v>86.93</v>
+        <v>88.93</v>
       </c>
       <c r="D36" s="6">
         <v>61</v>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -934,6 +934,12 @@
       <c r="A37" s="3">
         <v>44888</v>
       </c>
+      <c r="B37" s="5">
+        <v>2.82</v>
+      </c>
+      <c r="C37" s="5">
+        <v>91.75</v>
+      </c>
       <c r="D37" s="6">
         <v>62</v>
       </c>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -948,6 +948,12 @@
       <c r="A38" s="3">
         <v>44889</v>
       </c>
+      <c r="B38" s="5">
+        <v>3</v>
+      </c>
+      <c r="C38" s="5">
+        <v>94.75</v>
+      </c>
       <c r="D38" s="6">
         <v>63</v>
       </c>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -962,6 +962,12 @@
       <c r="A39" s="3">
         <v>44890</v>
       </c>
+      <c r="B39" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="C39" s="5">
+        <v>97.25</v>
+      </c>
       <c r="D39" s="6">
         <v>64</v>
       </c>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -963,10 +963,10 @@
         <v>44890</v>
       </c>
       <c r="B39" s="5">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="C39" s="5">
-        <v>97.25</v>
+        <v>99.25</v>
       </c>
       <c r="D39" s="6">
         <v>64</v>
@@ -975,6 +975,12 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>44891</v>
+      </c>
+      <c r="B40" s="5">
+        <v>3</v>
+      </c>
+      <c r="C40" s="5">
+        <v>102.25</v>
       </c>
       <c r="D40" s="6">
         <v>65</v>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -990,6 +990,12 @@
       <c r="A41" s="3">
         <v>44892</v>
       </c>
+      <c r="B41" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="C41" s="5">
+        <v>104.35</v>
+      </c>
       <c r="D41" s="6">
         <v>66</v>
       </c>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1004,6 +1004,12 @@
       <c r="A42" s="3">
         <v>44893</v>
       </c>
+      <c r="B42" s="5">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="C42" s="5">
+        <v>106.86</v>
+      </c>
       <c r="D42" s="6">
         <v>67</v>
       </c>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1018,6 +1018,12 @@
       <c r="A43" s="3">
         <v>44894</v>
       </c>
+      <c r="B43" s="5">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="C43" s="5">
+        <v>109.14</v>
+      </c>
       <c r="D43" s="6">
         <v>68</v>
       </c>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1032,6 +1032,12 @@
       <c r="A44" s="3">
         <v>44895</v>
       </c>
+      <c r="B44" s="5">
+        <v>1</v>
+      </c>
+      <c r="C44" s="5">
+        <v>110.14</v>
+      </c>
       <c r="D44" s="6">
         <v>69</v>
       </c>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1044,249 +1044,247 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>44896</v>
+        <v>44897</v>
+      </c>
+      <c r="B45" s="5">
+        <v>2.41</v>
+      </c>
+      <c r="C45" s="5">
+        <v>112.55</v>
       </c>
       <c r="D45" s="6">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>44897</v>
+        <v>44898</v>
       </c>
       <c r="D46" s="6">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>44898</v>
+        <v>44899</v>
       </c>
       <c r="D47" s="6">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>44899</v>
+        <v>44900</v>
       </c>
       <c r="D48" s="6">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>44900</v>
+        <v>44901</v>
       </c>
       <c r="D49" s="6">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>44901</v>
+        <v>44902</v>
       </c>
       <c r="D50" s="6">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>44902</v>
+        <v>44903</v>
       </c>
       <c r="D51" s="6">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>44903</v>
+        <v>44904</v>
       </c>
       <c r="D52" s="6">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>44904</v>
+        <v>44905</v>
       </c>
       <c r="D53" s="6">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>44905</v>
+        <v>44906</v>
       </c>
       <c r="D54" s="6">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>44906</v>
+        <v>44907</v>
       </c>
       <c r="D55" s="6">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>44907</v>
+        <v>44908</v>
       </c>
       <c r="D56" s="6">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>44908</v>
+        <v>44909</v>
       </c>
       <c r="D57" s="6">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>44909</v>
+        <v>44910</v>
       </c>
       <c r="D58" s="6">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>44910</v>
+        <v>44911</v>
       </c>
       <c r="D59" s="6">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>44911</v>
+        <v>44912</v>
       </c>
       <c r="D60" s="6">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>44912</v>
+        <v>44913</v>
       </c>
       <c r="D61" s="6">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>44913</v>
+        <v>44914</v>
       </c>
       <c r="D62" s="6">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="D63" s="6">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="D64" s="6">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>44916</v>
+        <v>44917</v>
       </c>
       <c r="D65" s="6">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>44917</v>
+        <v>44918</v>
       </c>
       <c r="D66" s="6">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>44918</v>
+        <v>44919</v>
       </c>
       <c r="D67" s="6">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>44919</v>
+        <v>44920</v>
       </c>
       <c r="D68" s="6">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>44920</v>
+        <v>44921</v>
       </c>
       <c r="D69" s="6">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>44921</v>
+        <v>44922</v>
       </c>
       <c r="D70" s="6">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>44922</v>
+        <v>44923</v>
       </c>
       <c r="D71" s="6">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>44923</v>
+        <v>44924</v>
       </c>
       <c r="D72" s="6">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>44924</v>
+        <v>44925</v>
       </c>
       <c r="D73" s="6">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>44925</v>
+        <v>44926</v>
       </c>
       <c r="D74" s="6">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D75" s="6">
         <v>100</v>
       </c>
     </row>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1060,6 +1060,12 @@
       <c r="A46" s="3">
         <v>44898</v>
       </c>
+      <c r="B46" s="5">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="C46" s="5">
+        <v>115.06</v>
+      </c>
       <c r="D46" s="6">
         <v>72</v>
       </c>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1074,6 +1074,12 @@
       <c r="A47" s="3">
         <v>44899</v>
       </c>
+      <c r="B47" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="C47" s="5">
+        <v>126.31</v>
+      </c>
       <c r="D47" s="6">
         <v>73</v>
       </c>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1088,6 +1088,12 @@
       <c r="A48" s="3">
         <v>44900</v>
       </c>
+      <c r="B48" s="5">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="C48" s="5">
+        <v>128.82</v>
+      </c>
       <c r="D48" s="6">
         <v>74</v>
       </c>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1102,6 +1102,12 @@
       <c r="A49" s="3">
         <v>44901</v>
       </c>
+      <c r="B49" s="5">
+        <v>2.15</v>
+      </c>
+      <c r="C49" s="5">
+        <v>130.97</v>
+      </c>
       <c r="D49" s="6">
         <v>75</v>
       </c>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1116,6 +1116,12 @@
       <c r="A50" s="3">
         <v>44902</v>
       </c>
+      <c r="B50" s="5">
+        <v>2.61</v>
+      </c>
+      <c r="C50" s="5">
+        <v>133.58000000000001</v>
+      </c>
       <c r="D50" s="6">
         <v>76</v>
       </c>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1128,193 +1128,159 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>44903</v>
+        <v>44908</v>
+      </c>
+      <c r="B51" s="5">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="C51" s="5">
+        <v>136.11000000000001</v>
       </c>
       <c r="D51" s="6">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>44904</v>
+        <v>44909</v>
       </c>
       <c r="D52" s="6">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>44905</v>
+        <v>44910</v>
       </c>
       <c r="D53" s="6">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>44906</v>
+        <v>44911</v>
       </c>
       <c r="D54" s="6">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>44907</v>
+        <v>44912</v>
       </c>
       <c r="D55" s="6">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>44908</v>
+        <v>44913</v>
       </c>
       <c r="D56" s="6">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>44909</v>
+        <v>44914</v>
       </c>
       <c r="D57" s="6">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>44910</v>
+        <v>44915</v>
       </c>
       <c r="D58" s="6">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>44911</v>
+        <v>44916</v>
       </c>
       <c r="D59" s="6">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>44912</v>
+        <v>44917</v>
       </c>
       <c r="D60" s="6">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>44913</v>
+        <v>44918</v>
       </c>
       <c r="D61" s="6">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>44914</v>
+        <v>44919</v>
       </c>
       <c r="D62" s="6">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>44915</v>
+        <v>44920</v>
       </c>
       <c r="D63" s="6">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>44916</v>
+        <v>44921</v>
       </c>
       <c r="D64" s="6">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>44917</v>
+        <v>44922</v>
       </c>
       <c r="D65" s="6">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>44918</v>
+        <v>44923</v>
       </c>
       <c r="D66" s="6">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>44919</v>
+        <v>44924</v>
       </c>
       <c r="D67" s="6">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>44920</v>
+        <v>44925</v>
       </c>
       <c r="D68" s="6">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>44921</v>
+        <v>44926</v>
       </c>
       <c r="D69" s="6">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
-        <v>44922</v>
-      </c>
-      <c r="D70" s="6">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <v>44923</v>
-      </c>
-      <c r="D71" s="6">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
-        <v>44924</v>
-      </c>
-      <c r="D72" s="6">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
-        <v>44925</v>
-      </c>
-      <c r="D73" s="6">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D74" s="6">
         <v>100</v>
       </c>
     </row>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1144,6 +1144,12 @@
       <c r="A52" s="3">
         <v>44909</v>
       </c>
+      <c r="B52" s="5">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="C52" s="5">
+        <v>138.62</v>
+      </c>
       <c r="D52" s="6">
         <v>83</v>
       </c>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -10,14 +10,14 @@
     <sheet name="2022" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2022'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2022'!$A$1:$E$63</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Expected</t>
+  </si>
+  <si>
+    <t>Diff</t>
   </si>
 </sst>
 </file>
@@ -413,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -424,9 +427,10 @@
     <col min="1" max="1" width="18.7109375" style="4" customWidth="1"/>
     <col min="2" max="3" width="18.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="44.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="17.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -439,8 +443,11 @@
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>44827</v>
       </c>
@@ -453,8 +460,12 @@
       <c r="D2" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+      <c r="E2" s="5">
+        <f>$C2-$D2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>44829</v>
       </c>
@@ -467,8 +478,12 @@
       <c r="D3" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E54" si="0">$C3-$D3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>44833</v>
       </c>
@@ -481,8 +496,12 @@
       <c r="D4" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+      <c r="E4" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>44836</v>
       </c>
@@ -495,8 +514,12 @@
       <c r="D5" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>44837</v>
       </c>
@@ -509,8 +532,12 @@
       <c r="D6" s="6">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>44840</v>
       </c>
@@ -523,8 +550,12 @@
       <c r="D7" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>44841</v>
       </c>
@@ -537,8 +568,12 @@
       <c r="D8" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>7.8999999999999986</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>44842</v>
       </c>
@@ -551,8 +586,12 @@
       <c r="D9" s="6">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>10.210000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>44844</v>
       </c>
@@ -565,8 +604,12 @@
       <c r="D10" s="6">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>10.260000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>44846</v>
       </c>
@@ -579,8 +622,12 @@
       <c r="D11" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>12.869999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>44850</v>
       </c>
@@ -593,8 +640,12 @@
       <c r="D12" s="6">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>11.869999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>44851</v>
       </c>
@@ -607,8 +658,12 @@
       <c r="D13" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>12.950000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>44853</v>
       </c>
@@ -621,8 +676,12 @@
       <c r="D14" s="6">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>13.130000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>44855</v>
       </c>
@@ -635,8 +694,12 @@
       <c r="D15" s="6">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>13.299999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>44859</v>
       </c>
@@ -649,8 +712,12 @@
       <c r="D16" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+      <c r="E16" s="5">
+        <f t="shared" si="0"/>
+        <v>12.399999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>44860</v>
       </c>
@@ -663,8 +730,12 @@
       <c r="D17" s="6">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
+        <v>13.520000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>44861</v>
       </c>
@@ -677,8 +748,12 @@
       <c r="D18" s="6">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+      <c r="E18" s="5">
+        <f t="shared" si="0"/>
+        <v>14.670000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>44866</v>
       </c>
@@ -691,8 +766,12 @@
       <c r="D19" s="6">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="17.45" x14ac:dyDescent="0.35">
+      <c r="E19" s="5">
+        <f t="shared" si="0"/>
+        <v>11.670000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>44867</v>
       </c>
@@ -705,8 +784,12 @@
       <c r="D20" s="6">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="5">
+        <f t="shared" si="0"/>
+        <v>12.670000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>44868</v>
       </c>
@@ -719,8 +802,12 @@
       <c r="D21" s="6">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="5">
+        <f t="shared" si="0"/>
+        <v>13.670000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>44869</v>
       </c>
@@ -733,8 +820,12 @@
       <c r="D22" s="6">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="5">
+        <f t="shared" si="0"/>
+        <v>14.770000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>44870</v>
       </c>
@@ -747,8 +838,12 @@
       <c r="D23" s="6">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="5">
+        <f t="shared" si="0"/>
+        <v>15.770000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>44871</v>
       </c>
@@ -761,8 +856,12 @@
       <c r="D24" s="6">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="5">
+        <f t="shared" si="0"/>
+        <v>17.170000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>44872</v>
       </c>
@@ -775,8 +874,12 @@
       <c r="D25" s="6">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="5">
+        <f t="shared" si="0"/>
+        <v>18.879999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>44873</v>
       </c>
@@ -789,8 +892,12 @@
       <c r="D26" s="6">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="5">
+        <f t="shared" si="0"/>
+        <v>18.14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>44874</v>
       </c>
@@ -803,8 +910,12 @@
       <c r="D27" s="6">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="5">
+        <f t="shared" si="0"/>
+        <v>19.239999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>44875</v>
       </c>
@@ -817,8 +928,12 @@
       <c r="D28" s="6">
         <v>49</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="5">
+        <f t="shared" si="0"/>
+        <v>19.989999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>44876</v>
       </c>
@@ -831,8 +946,12 @@
       <c r="D29" s="6">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="5">
+        <f t="shared" si="0"/>
+        <v>21.489999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>44877</v>
       </c>
@@ -845,8 +964,12 @@
       <c r="D30" s="6">
         <v>51</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="5">
+        <f t="shared" si="0"/>
+        <v>22.900000000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>44879</v>
       </c>
@@ -859,8 +982,12 @@
       <c r="D31" s="6">
         <v>53</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="5">
+        <f t="shared" si="0"/>
+        <v>23.11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>44880</v>
       </c>
@@ -873,8 +1000,12 @@
       <c r="D32" s="6">
         <v>54</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="5">
+        <f t="shared" si="0"/>
+        <v>24.11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>44881</v>
       </c>
@@ -887,8 +1018,12 @@
       <c r="D33" s="6">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="5">
+        <f t="shared" si="0"/>
+        <v>25.22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>44883</v>
       </c>
@@ -901,8 +1036,12 @@
       <c r="D34" s="6">
         <v>57</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="5">
+        <f t="shared" si="0"/>
+        <v>25.22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>44884</v>
       </c>
@@ -915,8 +1054,12 @@
       <c r="D35" s="6">
         <v>58</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="5">
+        <f t="shared" si="0"/>
+        <v>26.22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>44887</v>
       </c>
@@ -929,8 +1072,12 @@
       <c r="D36" s="6">
         <v>61</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="5">
+        <f t="shared" si="0"/>
+        <v>27.930000000000007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>44888</v>
       </c>
@@ -943,8 +1090,12 @@
       <c r="D37" s="6">
         <v>62</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="5">
+        <f t="shared" si="0"/>
+        <v>29.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>44889</v>
       </c>
@@ -957,8 +1108,12 @@
       <c r="D38" s="6">
         <v>63</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="5">
+        <f t="shared" si="0"/>
+        <v>31.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>44890</v>
       </c>
@@ -971,8 +1126,12 @@
       <c r="D39" s="6">
         <v>64</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="5">
+        <f t="shared" si="0"/>
+        <v>35.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>44891</v>
       </c>
@@ -985,8 +1144,12 @@
       <c r="D40" s="6">
         <v>65</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="5">
+        <f t="shared" si="0"/>
+        <v>37.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>44892</v>
       </c>
@@ -999,8 +1162,12 @@
       <c r="D41" s="6">
         <v>66</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="5">
+        <f t="shared" si="0"/>
+        <v>38.349999999999994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>44893</v>
       </c>
@@ -1013,8 +1180,12 @@
       <c r="D42" s="6">
         <v>67</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="5">
+        <f t="shared" si="0"/>
+        <v>39.86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>44894</v>
       </c>
@@ -1027,8 +1198,12 @@
       <c r="D43" s="6">
         <v>68</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="5">
+        <f t="shared" si="0"/>
+        <v>41.14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>44895</v>
       </c>
@@ -1041,8 +1216,12 @@
       <c r="D44" s="6">
         <v>69</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="5">
+        <f t="shared" si="0"/>
+        <v>41.14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44897</v>
       </c>
@@ -1055,8 +1234,12 @@
       <c r="D45" s="6">
         <v>71</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="5">
+        <f t="shared" si="0"/>
+        <v>41.55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44898</v>
       </c>
@@ -1069,8 +1252,12 @@
       <c r="D46" s="6">
         <v>72</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="5">
+        <f t="shared" si="0"/>
+        <v>43.06</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>44899</v>
       </c>
@@ -1083,8 +1270,12 @@
       <c r="D47" s="6">
         <v>73</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="5">
+        <f t="shared" si="0"/>
+        <v>53.31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>44900</v>
       </c>
@@ -1097,8 +1288,12 @@
       <c r="D48" s="6">
         <v>74</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="5">
+        <f t="shared" si="0"/>
+        <v>54.819999999999993</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>44901</v>
       </c>
@@ -1111,8 +1306,12 @@
       <c r="D49" s="6">
         <v>75</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="5">
+        <f t="shared" si="0"/>
+        <v>55.97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>44902</v>
       </c>
@@ -1125,8 +1324,12 @@
       <c r="D50" s="6">
         <v>76</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="5">
+        <f t="shared" si="0"/>
+        <v>57.580000000000013</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>44908</v>
       </c>
@@ -1139,8 +1342,12 @@
       <c r="D51" s="6">
         <v>82</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="5">
+        <f t="shared" si="0"/>
+        <v>54.110000000000014</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>44909</v>
       </c>
@@ -1153,146 +1360,155 @@
       <c r="D52" s="6">
         <v>83</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="5">
+        <f t="shared" si="0"/>
+        <v>55.620000000000005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>44910</v>
+        <v>44916</v>
+      </c>
+      <c r="B53" s="5">
+        <v>2.41</v>
+      </c>
+      <c r="C53" s="5">
+        <v>141.03</v>
       </c>
       <c r="D53" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E53" s="5">
+        <f t="shared" si="0"/>
+        <v>51.03</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>44911</v>
+        <v>44917</v>
+      </c>
+      <c r="B54" s="5">
+        <v>2.54</v>
+      </c>
+      <c r="C54" s="5">
+        <v>143.57</v>
       </c>
       <c r="D54" s="6">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="E54" s="5">
+        <f t="shared" si="0"/>
+        <v>52.569999999999993</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>44912</v>
+        <v>44918</v>
       </c>
       <c r="D55" s="6">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>44913</v>
+        <v>44919</v>
       </c>
       <c r="D56" s="6">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>44914</v>
+        <v>44920</v>
       </c>
       <c r="D57" s="6">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>44915</v>
+        <v>44921</v>
       </c>
       <c r="D58" s="6">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>44916</v>
+        <v>44922</v>
       </c>
       <c r="D59" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>44917</v>
+        <v>44923</v>
       </c>
       <c r="D60" s="6">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>44918</v>
+        <v>44924</v>
       </c>
       <c r="D61" s="6">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>44919</v>
+        <v>44925</v>
       </c>
       <c r="D62" s="6">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>44920</v>
+        <v>44926</v>
       </c>
       <c r="D63" s="6">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
-        <v>44921</v>
-      </c>
-      <c r="D64" s="6">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
-        <v>44922</v>
-      </c>
-      <c r="D65" s="6">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
-        <v>44923</v>
-      </c>
-      <c r="D66" s="6">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
-        <v>44924</v>
-      </c>
-      <c r="D67" s="6">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
-        <v>44925</v>
-      </c>
-      <c r="D68" s="6">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D69" s="6">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1"/>
+  <autoFilter ref="A1:E63"/>
+  <conditionalFormatting sqref="E2:E54">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5DEDC1C4-9987-422E-BAC3-7F2DD8852766}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5DEDC1C4-9987-422E-BAC3-7F2DD8852766}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E2:E54</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/miles.xlsx
+++ b/miles.xlsx
@@ -10,7 +10,7 @@
     <sheet name="2022" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2022'!$A$1:$E$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2022'!$A$1:$E$62</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1403,80 +1403,79 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>44918</v>
+        <v>44919</v>
+      </c>
+      <c r="B55" s="5">
+        <v>2.21</v>
+      </c>
+      <c r="C55" s="5">
+        <v>145.78</v>
       </c>
       <c r="D55" s="6">
-        <v>92</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>44919</v>
+        <v>44920</v>
       </c>
       <c r="D56" s="6">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>44920</v>
+        <v>44921</v>
       </c>
       <c r="D57" s="6">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>44921</v>
+        <v>44922</v>
       </c>
       <c r="D58" s="6">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>44922</v>
+        <v>44923</v>
       </c>
       <c r="D59" s="6">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>44923</v>
+        <v>44924</v>
       </c>
       <c r="D60" s="6">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>44924</v>
+        <v>44925</v>
       </c>
       <c r="D61" s="6">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>44925</v>
+        <v>44926</v>
       </c>
       <c r="D62" s="6">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D63" s="6">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E63"/>
+  <autoFilter ref="A1:E62"/>
   <conditionalFormatting sqref="E2:E54">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1485,6 +1484,34 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{5DEDC1C4-9987-422E-BAC3-7F2DD8852766}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E4189E06-40B5-4C25-8CD3-9DAF6C0B206D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E55">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{68E8904D-9B01-4AE2-8E8C-5E7F7CB6233C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1507,6 +1534,32 @@
           </x14:cfRule>
           <xm:sqref>E2:E54</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E4189E06-40B5-4C25-8CD3-9DAF6C0B206D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{68E8904D-9B01-4AE2-8E8C-5E7F7CB6233C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E2:E55</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -10,7 +10,7 @@
     <sheet name="2022" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2022'!$A$1:$E$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2022'!$A$1:$E$61</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -479,7 +479,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E54" si="0">$C3-$D3</f>
+        <f t="shared" ref="E3:E56" si="0">$C3-$D3</f>
         <v>5</v>
       </c>
     </row>
@@ -1414,67 +1414,72 @@
       <c r="D55" s="6">
         <v>93</v>
       </c>
-      <c r="E55" s="5"/>
+      <c r="E55" s="5">
+        <f t="shared" si="0"/>
+        <v>52.78</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>44920</v>
+        <v>44921</v>
+      </c>
+      <c r="B56" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="C56" s="5">
+        <v>147.88</v>
       </c>
       <c r="D56" s="6">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="E56" s="5">
+        <f t="shared" si="0"/>
+        <v>52.879999999999995</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>44921</v>
+        <v>44922</v>
       </c>
       <c r="D57" s="6">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>44922</v>
+        <v>44923</v>
       </c>
       <c r="D58" s="6">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>44923</v>
+        <v>44924</v>
       </c>
       <c r="D59" s="6">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>44924</v>
+        <v>44925</v>
       </c>
       <c r="D60" s="6">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>44925</v>
+        <v>44926</v>
       </c>
       <c r="D61" s="6">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D62" s="6">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E62"/>
-  <conditionalFormatting sqref="E2:E54">
+  <autoFilter ref="A1:E61"/>
+  <conditionalFormatting sqref="E2:E56">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -1488,21 +1493,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFD6007B"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E4189E06-40B5-4C25-8CD3-9DAF6C0B206D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E55">
+  <conditionalFormatting sqref="E2:E56">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1532,20 +1523,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E54</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E4189E06-40B5-4C25-8CD3-9DAF6C0B206D}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFD6007B"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E55</xm:sqref>
+          <xm:sqref>E2:E56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{68E8904D-9B01-4AE2-8E8C-5E7F7CB6233C}">
@@ -1558,7 +1536,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E55</xm:sqref>
+          <xm:sqref>E2:E56</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -418,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -479,7 +479,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E56" si="0">$C3-$D3</f>
+        <f t="shared" ref="E3:E59" si="0">$C3-$D3</f>
         <v>5</v>
       </c>
     </row>
@@ -1441,24 +1441,54 @@
       <c r="A57" s="3">
         <v>44922</v>
       </c>
+      <c r="B57" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C57" s="5">
+        <v>150.08000000000001</v>
+      </c>
       <c r="D57" s="6">
         <v>96</v>
+      </c>
+      <c r="E57" s="5">
+        <f t="shared" si="0"/>
+        <v>54.080000000000013</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>44923</v>
       </c>
+      <c r="B58" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C58" s="5">
+        <v>152.28</v>
+      </c>
       <c r="D58" s="6">
         <v>97</v>
+      </c>
+      <c r="E58" s="5">
+        <f t="shared" si="0"/>
+        <v>55.28</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>44924</v>
       </c>
+      <c r="B59" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="C59" s="5">
+        <v>154.38</v>
+      </c>
       <c r="D59" s="6">
         <v>98</v>
+      </c>
+      <c r="E59" s="5">
+        <f t="shared" si="0"/>
+        <v>56.379999999999995</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1479,7 +1509,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E61"/>
-  <conditionalFormatting sqref="E2:E56">
+  <conditionalFormatting sqref="E2:E59">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -1493,7 +1523,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E56">
+  <conditionalFormatting sqref="E2:E59">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1523,7 +1553,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E56</xm:sqref>
+          <xm:sqref>E2:E59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{68E8904D-9B01-4AE2-8E8C-5E7F7CB6233C}">
@@ -1536,7 +1566,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E56</xm:sqref>
+          <xm:sqref>E2:E59</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -10,7 +10,7 @@
     <sheet name="2022" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2022'!$A$1:$E$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2022'!$A$1:$E$60</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1493,24 +1493,22 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>44925</v>
+        <v>44926</v>
+      </c>
+      <c r="B60" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="C60" s="5">
+        <v>156.47999999999999</v>
       </c>
       <c r="D60" s="6">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D61" s="6">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E61"/>
+  <autoFilter ref="A1:E60"/>
   <conditionalFormatting sqref="E2:E59">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1524,6 +1522,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E59">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{68E8904D-9B01-4AE2-8E8C-5E7F7CB6233C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E60">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1532,7 +1544,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{68E8904D-9B01-4AE2-8E8C-5E7F7CB6233C}</x14:id>
+          <x14:id>{73AD50E7-1C98-48FF-BC62-39E1EA8A2450}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1568,6 +1580,17 @@
           </x14:cfRule>
           <xm:sqref>E2:E59</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{73AD50E7-1C98-48FF-BC62-39E1EA8A2450}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E2:E60</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="3" r:id="rId1"/>
+    <sheet name="2023" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2022'!$A$1:$E$60</definedName>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -32,6 +33,9 @@
   </si>
   <si>
     <t>Diff</t>
+  </si>
+  <si>
+    <t>01/02/2023</t>
   </si>
 </sst>
 </file>
@@ -88,7 +92,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -112,6 +116,13 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,9 +429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
@@ -461,7 +470,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="5">
-        <f>$C2-$D2</f>
+        <f>$C2-D2</f>
         <v>3</v>
       </c>
     </row>
@@ -1504,11 +1513,14 @@
       <c r="D60" s="6">
         <v>100</v>
       </c>
+      <c r="E60" s="5">
+        <v>56.48</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E60"/>
   <conditionalFormatting sqref="E2:E59">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1522,7 +1534,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E59">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1545,6 +1557,34 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{73AD50E7-1C98-48FF-BC62-39E1EA8A2450}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{02133E96-E55D-467B-B7A7-34C03DA08B97}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F00D29DD-37C3-47F4-AF27-0F7D5A48E27F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1591,6 +1631,120 @@
           </x14:cfRule>
           <xm:sqref>E2:E60</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{02133E96-E55D-467B-B7A7-34C03DA08B97}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E60</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F00D29DD-37C3-47F4-AF27-0F7D5A48E27F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E60</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" style="10" customWidth="1"/>
+    <col min="2" max="3" width="18.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="44.140625" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="C2" s="5">
+        <v>158.69999999999999</v>
+      </c>
+      <c r="D2" s="6">
+        <v>102</v>
+      </c>
+      <c r="E2" s="5">
+        <f>$C2-$D2</f>
+        <v>56.699999999999989</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D49CCF03-75CF-4BD5-AA46-E989FFF4BE7B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D49CCF03-75CF-4BD5-AA46-E989FFF4BE7B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E2</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>01/02/2023</t>
+  </si>
+  <si>
+    <t>01/03/2023</t>
   </si>
 </sst>
 </file>
@@ -429,7 +432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1665,7 +1668,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1705,15 +1708,33 @@
         <v>158.69999999999999</v>
       </c>
       <c r="D2" s="6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E2" s="5">
         <f>$C2-$D2</f>
-        <v>56.699999999999989</v>
+        <v>57.699999999999989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2.23</v>
+      </c>
+      <c r="C3" s="5">
+        <v>160.93</v>
+      </c>
+      <c r="D3" s="6">
+        <v>102</v>
+      </c>
+      <c r="E3" s="5">
+        <f>$C3-$D3</f>
+        <v>58.930000000000007</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E3">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1743,7 +1764,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2</xm:sqref>
+          <xm:sqref>E2:E3</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>01/03/2023</t>
+  </si>
+  <si>
+    <t>01/04/2023</t>
   </si>
 </sst>
 </file>
@@ -1668,7 +1671,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1733,8 +1736,26 @@
         <v>58.930000000000007</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="C4" s="5">
+        <v>163.18</v>
+      </c>
+      <c r="D4" s="6">
+        <v>103</v>
+      </c>
+      <c r="E4" s="5">
+        <f>$C4-$D4</f>
+        <v>60.180000000000007</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E2:E4">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1764,7 +1785,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E3</xm:sqref>
+          <xm:sqref>E2:E4</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="369">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -42,6 +42,1089 @@
   </si>
   <si>
     <t>01/04/2023</t>
+  </si>
+  <si>
+    <t>01/05/2023</t>
+  </si>
+  <si>
+    <t>01/06/2023</t>
+  </si>
+  <si>
+    <t>01/07/2023</t>
+  </si>
+  <si>
+    <t>01/08/2023</t>
+  </si>
+  <si>
+    <t>01/09/2023</t>
+  </si>
+  <si>
+    <t>01/10/2023</t>
+  </si>
+  <si>
+    <t>01/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>01/13/2023</t>
+  </si>
+  <si>
+    <t>01/14/2023</t>
+  </si>
+  <si>
+    <t>01/15/2023</t>
+  </si>
+  <si>
+    <t>01/16/2023</t>
+  </si>
+  <si>
+    <t>01/17/2023</t>
+  </si>
+  <si>
+    <t>01/18/2023</t>
+  </si>
+  <si>
+    <t>01/19/2023</t>
+  </si>
+  <si>
+    <t>01/20/2023</t>
+  </si>
+  <si>
+    <t>01/21/2023</t>
+  </si>
+  <si>
+    <t>01/22/2023</t>
+  </si>
+  <si>
+    <t>01/23/2023</t>
+  </si>
+  <si>
+    <t>01/24/2023</t>
+  </si>
+  <si>
+    <t>01/25/2023</t>
+  </si>
+  <si>
+    <t>01/26/2023</t>
+  </si>
+  <si>
+    <t>01/27/2023</t>
+  </si>
+  <si>
+    <t>01/28/2023</t>
+  </si>
+  <si>
+    <t>01/29/2023</t>
+  </si>
+  <si>
+    <t>01/30/2023</t>
+  </si>
+  <si>
+    <t>01/31/2023</t>
+  </si>
+  <si>
+    <t>02/01/2023</t>
+  </si>
+  <si>
+    <t>02/02/2023</t>
+  </si>
+  <si>
+    <t>02/03/2023</t>
+  </si>
+  <si>
+    <t>02/04/2023</t>
+  </si>
+  <si>
+    <t>02/05/2023</t>
+  </si>
+  <si>
+    <t>02/06/2023</t>
+  </si>
+  <si>
+    <t>02/07/2023</t>
+  </si>
+  <si>
+    <t>02/08/2023</t>
+  </si>
+  <si>
+    <t>02/09/2023</t>
+  </si>
+  <si>
+    <t>02/10/2023</t>
+  </si>
+  <si>
+    <t>02/11/2023</t>
+  </si>
+  <si>
+    <t>02/12/2023</t>
+  </si>
+  <si>
+    <t>02/13/2023</t>
+  </si>
+  <si>
+    <t>02/14/2023</t>
+  </si>
+  <si>
+    <t>02/15/2023</t>
+  </si>
+  <si>
+    <t>02/16/2023</t>
+  </si>
+  <si>
+    <t>02/17/2023</t>
+  </si>
+  <si>
+    <t>02/18/2023</t>
+  </si>
+  <si>
+    <t>02/19/2023</t>
+  </si>
+  <si>
+    <t>02/20/2023</t>
+  </si>
+  <si>
+    <t>02/21/2023</t>
+  </si>
+  <si>
+    <t>02/22/2023</t>
+  </si>
+  <si>
+    <t>02/23/2023</t>
+  </si>
+  <si>
+    <t>02/24/2023</t>
+  </si>
+  <si>
+    <t>02/25/2023</t>
+  </si>
+  <si>
+    <t>02/26/2023</t>
+  </si>
+  <si>
+    <t>02/27/2023</t>
+  </si>
+  <si>
+    <t>02/28/2023</t>
+  </si>
+  <si>
+    <t>03/01/2023</t>
+  </si>
+  <si>
+    <t>03/02/2023</t>
+  </si>
+  <si>
+    <t>03/03/2023</t>
+  </si>
+  <si>
+    <t>03/04/2023</t>
+  </si>
+  <si>
+    <t>03/05/2023</t>
+  </si>
+  <si>
+    <t>03/06/2023</t>
+  </si>
+  <si>
+    <t>03/07/2023</t>
+  </si>
+  <si>
+    <t>03/08/2023</t>
+  </si>
+  <si>
+    <t>03/09/2023</t>
+  </si>
+  <si>
+    <t>03/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>03/12/2023</t>
+  </si>
+  <si>
+    <t>03/13/2023</t>
+  </si>
+  <si>
+    <t>03/14/2023</t>
+  </si>
+  <si>
+    <t>03/15/2023</t>
+  </si>
+  <si>
+    <t>03/16/2023</t>
+  </si>
+  <si>
+    <t>03/17/2023</t>
+  </si>
+  <si>
+    <t>03/18/2023</t>
+  </si>
+  <si>
+    <t>03/19/2023</t>
+  </si>
+  <si>
+    <t>03/20/2023</t>
+  </si>
+  <si>
+    <t>03/21/2023</t>
+  </si>
+  <si>
+    <t>03/22/2023</t>
+  </si>
+  <si>
+    <t>03/23/2023</t>
+  </si>
+  <si>
+    <t>03/24/2023</t>
+  </si>
+  <si>
+    <t>03/25/2023</t>
+  </si>
+  <si>
+    <t>03/26/2023</t>
+  </si>
+  <si>
+    <t>03/27/2023</t>
+  </si>
+  <si>
+    <t>03/28/2023</t>
+  </si>
+  <si>
+    <t>03/29/2023</t>
+  </si>
+  <si>
+    <t>03/30/2023</t>
+  </si>
+  <si>
+    <t>03/31/2023</t>
+  </si>
+  <si>
+    <t>04/01/2023</t>
+  </si>
+  <si>
+    <t>04/02/2023</t>
+  </si>
+  <si>
+    <t>04/03/2023</t>
+  </si>
+  <si>
+    <t>04/04/2023</t>
+  </si>
+  <si>
+    <t>04/05/2023</t>
+  </si>
+  <si>
+    <t>04/06/2023</t>
+  </si>
+  <si>
+    <t>04/07/2023</t>
+  </si>
+  <si>
+    <t>04/08/2023</t>
+  </si>
+  <si>
+    <t>04/09/2023</t>
+  </si>
+  <si>
+    <t>04/10/2023</t>
+  </si>
+  <si>
+    <t>04/11/2023</t>
+  </si>
+  <si>
+    <t>04/12/2023</t>
+  </si>
+  <si>
+    <t>04/13/2023</t>
+  </si>
+  <si>
+    <t>04/14/2023</t>
+  </si>
+  <si>
+    <t>04/15/2023</t>
+  </si>
+  <si>
+    <t>04/16/2023</t>
+  </si>
+  <si>
+    <t>04/17/2023</t>
+  </si>
+  <si>
+    <t>04/18/2023</t>
+  </si>
+  <si>
+    <t>04/19/2023</t>
+  </si>
+  <si>
+    <t>04/20/2023</t>
+  </si>
+  <si>
+    <t>04/21/2023</t>
+  </si>
+  <si>
+    <t>04/22/2023</t>
+  </si>
+  <si>
+    <t>04/23/2023</t>
+  </si>
+  <si>
+    <t>04/24/2023</t>
+  </si>
+  <si>
+    <t>04/25/2023</t>
+  </si>
+  <si>
+    <t>04/26/2023</t>
+  </si>
+  <si>
+    <t>04/27/2023</t>
+  </si>
+  <si>
+    <t>04/28/2023</t>
+  </si>
+  <si>
+    <t>04/29/2023</t>
+  </si>
+  <si>
+    <t>04/30/2023</t>
+  </si>
+  <si>
+    <t>05/01/2023</t>
+  </si>
+  <si>
+    <t>05/02/2023</t>
+  </si>
+  <si>
+    <t>05/03/2023</t>
+  </si>
+  <si>
+    <t>05/04/2023</t>
+  </si>
+  <si>
+    <t>05/05/2023</t>
+  </si>
+  <si>
+    <t>05/06/2023</t>
+  </si>
+  <si>
+    <t>05/07/2023</t>
+  </si>
+  <si>
+    <t>05/08/2023</t>
+  </si>
+  <si>
+    <t>05/09/2023</t>
+  </si>
+  <si>
+    <t>05/10/2023</t>
+  </si>
+  <si>
+    <t>05/11/2023</t>
+  </si>
+  <si>
+    <t>05/12/2023</t>
+  </si>
+  <si>
+    <t>05/13/2023</t>
+  </si>
+  <si>
+    <t>05/14/2023</t>
+  </si>
+  <si>
+    <t>05/15/2023</t>
+  </si>
+  <si>
+    <t>05/16/2023</t>
+  </si>
+  <si>
+    <t>05/17/2023</t>
+  </si>
+  <si>
+    <t>05/18/2023</t>
+  </si>
+  <si>
+    <t>05/19/2023</t>
+  </si>
+  <si>
+    <t>05/20/2023</t>
+  </si>
+  <si>
+    <t>05/21/2023</t>
+  </si>
+  <si>
+    <t>05/22/2023</t>
+  </si>
+  <si>
+    <t>05/23/2023</t>
+  </si>
+  <si>
+    <t>05/24/2023</t>
+  </si>
+  <si>
+    <t>05/25/2023</t>
+  </si>
+  <si>
+    <t>05/26/2023</t>
+  </si>
+  <si>
+    <t>05/27/2023</t>
+  </si>
+  <si>
+    <t>05/28/2023</t>
+  </si>
+  <si>
+    <t>05/29/2023</t>
+  </si>
+  <si>
+    <t>05/30/2023</t>
+  </si>
+  <si>
+    <t>05/31/2023</t>
+  </si>
+  <si>
+    <t>06/01/2023</t>
+  </si>
+  <si>
+    <t>06/02/2023</t>
+  </si>
+  <si>
+    <t>06/03/2023</t>
+  </si>
+  <si>
+    <t>06/04/2023</t>
+  </si>
+  <si>
+    <t>06/05/2023</t>
+  </si>
+  <si>
+    <t>06/06/2023</t>
+  </si>
+  <si>
+    <t>06/07/2023</t>
+  </si>
+  <si>
+    <t>06/08/2023</t>
+  </si>
+  <si>
+    <t>06/09/2023</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>06/11/2023</t>
+  </si>
+  <si>
+    <t>06/12/2023</t>
+  </si>
+  <si>
+    <t>06/13/2023</t>
+  </si>
+  <si>
+    <t>06/14/2023</t>
+  </si>
+  <si>
+    <t>06/15/2023</t>
+  </si>
+  <si>
+    <t>06/16/2023</t>
+  </si>
+  <si>
+    <t>06/17/2023</t>
+  </si>
+  <si>
+    <t>06/18/2023</t>
+  </si>
+  <si>
+    <t>06/19/2023</t>
+  </si>
+  <si>
+    <t>06/20/2023</t>
+  </si>
+  <si>
+    <t>06/21/2023</t>
+  </si>
+  <si>
+    <t>06/22/2023</t>
+  </si>
+  <si>
+    <t>06/23/2023</t>
+  </si>
+  <si>
+    <t>06/24/2023</t>
+  </si>
+  <si>
+    <t>06/25/2023</t>
+  </si>
+  <si>
+    <t>06/26/2023</t>
+  </si>
+  <si>
+    <t>06/27/2023</t>
+  </si>
+  <si>
+    <t>06/28/2023</t>
+  </si>
+  <si>
+    <t>06/29/2023</t>
+  </si>
+  <si>
+    <t>06/30/2023</t>
+  </si>
+  <si>
+    <t>07/01/2023</t>
+  </si>
+  <si>
+    <t>07/02/2023</t>
+  </si>
+  <si>
+    <t>07/03/2023</t>
+  </si>
+  <si>
+    <t>07/04/2023</t>
+  </si>
+  <si>
+    <t>07/05/2023</t>
+  </si>
+  <si>
+    <t>07/06/2023</t>
+  </si>
+  <si>
+    <t>07/07/2023</t>
+  </si>
+  <si>
+    <t>07/08/2023</t>
+  </si>
+  <si>
+    <t>07/09/2023</t>
+  </si>
+  <si>
+    <t>07/10/2023</t>
+  </si>
+  <si>
+    <t>07/11/2023</t>
+  </si>
+  <si>
+    <t>07/12/2023</t>
+  </si>
+  <si>
+    <t>07/13/2023</t>
+  </si>
+  <si>
+    <t>07/14/2023</t>
+  </si>
+  <si>
+    <t>07/15/2023</t>
+  </si>
+  <si>
+    <t>07/16/2023</t>
+  </si>
+  <si>
+    <t>07/17/2023</t>
+  </si>
+  <si>
+    <t>07/18/2023</t>
+  </si>
+  <si>
+    <t>07/19/2023</t>
+  </si>
+  <si>
+    <t>07/20/2023</t>
+  </si>
+  <si>
+    <t>07/21/2023</t>
+  </si>
+  <si>
+    <t>07/22/2023</t>
+  </si>
+  <si>
+    <t>07/23/2023</t>
+  </si>
+  <si>
+    <t>07/24/2023</t>
+  </si>
+  <si>
+    <t>07/25/2023</t>
+  </si>
+  <si>
+    <t>07/26/2023</t>
+  </si>
+  <si>
+    <t>07/27/2023</t>
+  </si>
+  <si>
+    <t>07/28/2023</t>
+  </si>
+  <si>
+    <t>07/29/2023</t>
+  </si>
+  <si>
+    <t>07/30/2023</t>
+  </si>
+  <si>
+    <t>07/31/2023</t>
+  </si>
+  <si>
+    <t>08/01/2023</t>
+  </si>
+  <si>
+    <t>08/02/2023</t>
+  </si>
+  <si>
+    <t>08/03/2023</t>
+  </si>
+  <si>
+    <t>08/04/2023</t>
+  </si>
+  <si>
+    <t>08/05/2023</t>
+  </si>
+  <si>
+    <t>08/06/2023</t>
+  </si>
+  <si>
+    <t>08/07/2023</t>
+  </si>
+  <si>
+    <t>08/08/2023</t>
+  </si>
+  <si>
+    <t>08/09/2023</t>
+  </si>
+  <si>
+    <t>08/10/2023</t>
+  </si>
+  <si>
+    <t>08/11/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>08/13/2023</t>
+  </si>
+  <si>
+    <t>08/14/2023</t>
+  </si>
+  <si>
+    <t>08/15/2023</t>
+  </si>
+  <si>
+    <t>08/16/2023</t>
+  </si>
+  <si>
+    <t>08/17/2023</t>
+  </si>
+  <si>
+    <t>08/18/2023</t>
+  </si>
+  <si>
+    <t>08/19/2023</t>
+  </si>
+  <si>
+    <t>08/20/2023</t>
+  </si>
+  <si>
+    <t>08/21/2023</t>
+  </si>
+  <si>
+    <t>08/22/2023</t>
+  </si>
+  <si>
+    <t>08/23/2023</t>
+  </si>
+  <si>
+    <t>08/24/2023</t>
+  </si>
+  <si>
+    <t>08/25/2023</t>
+  </si>
+  <si>
+    <t>08/26/2023</t>
+  </si>
+  <si>
+    <t>08/27/2023</t>
+  </si>
+  <si>
+    <t>08/28/2023</t>
+  </si>
+  <si>
+    <t>08/29/2023</t>
+  </si>
+  <si>
+    <t>08/30/2023</t>
+  </si>
+  <si>
+    <t>08/31/2023</t>
+  </si>
+  <si>
+    <t>09/01/2023</t>
+  </si>
+  <si>
+    <t>09/02/2023</t>
+  </si>
+  <si>
+    <t>09/03/2023</t>
+  </si>
+  <si>
+    <t>09/04/2023</t>
+  </si>
+  <si>
+    <t>09/05/2023</t>
+  </si>
+  <si>
+    <t>09/06/2023</t>
+  </si>
+  <si>
+    <t>09/07/2023</t>
+  </si>
+  <si>
+    <t>09/08/2023</t>
+  </si>
+  <si>
+    <t>09/09/2023</t>
+  </si>
+  <si>
+    <t>09/10/2023</t>
+  </si>
+  <si>
+    <t>09/11/2023</t>
+  </si>
+  <si>
+    <t>09/12/2023</t>
+  </si>
+  <si>
+    <t>09/13/2023</t>
+  </si>
+  <si>
+    <t>09/14/2023</t>
+  </si>
+  <si>
+    <t>09/15/2023</t>
+  </si>
+  <si>
+    <t>09/16/2023</t>
+  </si>
+  <si>
+    <t>09/17/2023</t>
+  </si>
+  <si>
+    <t>09/18/2023</t>
+  </si>
+  <si>
+    <t>09/19/2023</t>
+  </si>
+  <si>
+    <t>09/20/2023</t>
+  </si>
+  <si>
+    <t>09/21/2023</t>
+  </si>
+  <si>
+    <t>09/22/2023</t>
+  </si>
+  <si>
+    <t>09/23/2023</t>
+  </si>
+  <si>
+    <t>09/24/2023</t>
+  </si>
+  <si>
+    <t>09/25/2023</t>
+  </si>
+  <si>
+    <t>09/26/2023</t>
+  </si>
+  <si>
+    <t>09/27/2023</t>
+  </si>
+  <si>
+    <t>09/28/2023</t>
+  </si>
+  <si>
+    <t>09/29/2023</t>
+  </si>
+  <si>
+    <t>09/30/2023</t>
+  </si>
+  <si>
+    <t>10/01/2023</t>
+  </si>
+  <si>
+    <t>10/02/2023</t>
+  </si>
+  <si>
+    <t>10/03/2023</t>
+  </si>
+  <si>
+    <t>10/04/2023</t>
+  </si>
+  <si>
+    <t>10/05/2023</t>
+  </si>
+  <si>
+    <t>10/06/2023</t>
+  </si>
+  <si>
+    <t>10/07/2023</t>
+  </si>
+  <si>
+    <t>10/08/2023</t>
+  </si>
+  <si>
+    <t>10/09/2023</t>
+  </si>
+  <si>
+    <t>10/10/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>10/12/2023</t>
+  </si>
+  <si>
+    <t>10/13/2023</t>
+  </si>
+  <si>
+    <t>10/14/2023</t>
+  </si>
+  <si>
+    <t>10/15/2023</t>
+  </si>
+  <si>
+    <t>10/16/2023</t>
+  </si>
+  <si>
+    <t>10/17/2023</t>
+  </si>
+  <si>
+    <t>10/18/2023</t>
+  </si>
+  <si>
+    <t>10/19/2023</t>
+  </si>
+  <si>
+    <t>10/20/2023</t>
+  </si>
+  <si>
+    <t>10/21/2023</t>
+  </si>
+  <si>
+    <t>10/22/2023</t>
+  </si>
+  <si>
+    <t>10/23/2023</t>
+  </si>
+  <si>
+    <t>10/24/2023</t>
+  </si>
+  <si>
+    <t>10/25/2023</t>
+  </si>
+  <si>
+    <t>10/26/2023</t>
+  </si>
+  <si>
+    <t>10/27/2023</t>
+  </si>
+  <si>
+    <t>10/28/2023</t>
+  </si>
+  <si>
+    <t>10/29/2023</t>
+  </si>
+  <si>
+    <t>10/30/2023</t>
+  </si>
+  <si>
+    <t>10/31/2023</t>
+  </si>
+  <si>
+    <t>11/01/2023</t>
+  </si>
+  <si>
+    <t>11/02/2023</t>
+  </si>
+  <si>
+    <t>11/03/2023</t>
+  </si>
+  <si>
+    <t>11/04/2023</t>
+  </si>
+  <si>
+    <t>11/05/2023</t>
+  </si>
+  <si>
+    <t>11/06/2023</t>
+  </si>
+  <si>
+    <t>11/07/2023</t>
+  </si>
+  <si>
+    <t>11/08/2023</t>
+  </si>
+  <si>
+    <t>11/09/2023</t>
+  </si>
+  <si>
+    <t>11/10/2023</t>
+  </si>
+  <si>
+    <t>11/11/2023</t>
+  </si>
+  <si>
+    <t>11/12/2023</t>
+  </si>
+  <si>
+    <t>11/13/2023</t>
+  </si>
+  <si>
+    <t>11/14/2023</t>
+  </si>
+  <si>
+    <t>11/15/2023</t>
+  </si>
+  <si>
+    <t>11/16/2023</t>
+  </si>
+  <si>
+    <t>11/17/2023</t>
+  </si>
+  <si>
+    <t>11/18/2023</t>
+  </si>
+  <si>
+    <t>11/19/2023</t>
+  </si>
+  <si>
+    <t>11/20/2023</t>
+  </si>
+  <si>
+    <t>11/21/2023</t>
+  </si>
+  <si>
+    <t>11/22/2023</t>
+  </si>
+  <si>
+    <t>11/23/2023</t>
+  </si>
+  <si>
+    <t>11/24/2023</t>
+  </si>
+  <si>
+    <t>11/25/2023</t>
+  </si>
+  <si>
+    <t>11/26/2023</t>
+  </si>
+  <si>
+    <t>11/27/2023</t>
+  </si>
+  <si>
+    <t>11/28/2023</t>
+  </si>
+  <si>
+    <t>11/29/2023</t>
+  </si>
+  <si>
+    <t>11/30/2023</t>
+  </si>
+  <si>
+    <t>12/01/2023</t>
+  </si>
+  <si>
+    <t>12/02/2023</t>
+  </si>
+  <si>
+    <t>12/03/2023</t>
+  </si>
+  <si>
+    <t>12/04/2023</t>
+  </si>
+  <si>
+    <t>12/05/2023</t>
+  </si>
+  <si>
+    <t>12/06/2023</t>
+  </si>
+  <si>
+    <t>12/07/2023</t>
+  </si>
+  <si>
+    <t>12/08/2023</t>
+  </si>
+  <si>
+    <t>12/09/2023</t>
+  </si>
+  <si>
+    <t>12/10/2023</t>
+  </si>
+  <si>
+    <t>12/11/2023</t>
+  </si>
+  <si>
+    <t>12/12/2023</t>
+  </si>
+  <si>
+    <t>12/13/2023</t>
+  </si>
+  <si>
+    <t>12/14/2023</t>
+  </si>
+  <si>
+    <t>12/15/2023</t>
+  </si>
+  <si>
+    <t>12/16/2023</t>
+  </si>
+  <si>
+    <t>12/17/2023</t>
+  </si>
+  <si>
+    <t>12/18/2023</t>
+  </si>
+  <si>
+    <t>12/19/2023</t>
+  </si>
+  <si>
+    <t>12/20/2023</t>
+  </si>
+  <si>
+    <t>12/21/2023</t>
+  </si>
+  <si>
+    <t>12/22/2023</t>
+  </si>
+  <si>
+    <t>12/23/2023</t>
+  </si>
+  <si>
+    <t>12/24/2023</t>
+  </si>
+  <si>
+    <t>12/25/2023</t>
+  </si>
+  <si>
+    <t>12/26/2023</t>
+  </si>
+  <si>
+    <t>12/27/2023</t>
+  </si>
+  <si>
+    <t>12/28/2023</t>
+  </si>
+  <si>
+    <t>12/29/2023</t>
+  </si>
+  <si>
+    <t>12/30/2023</t>
+  </si>
+  <si>
+    <t>12/31/2023</t>
   </si>
 </sst>
 </file>
@@ -1671,13 +2754,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="10" customWidth="1"/>
     <col min="2" max="3" width="18.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" style="6" customWidth="1"/>
     <col min="5" max="5" width="44.140625" style="11" customWidth="1"/>
@@ -1754,9 +2837,2610 @@
         <v>60.180000000000007</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="C5" s="5">
+        <v>165.42</v>
+      </c>
+      <c r="D5" s="6">
+        <v>104</v>
+      </c>
+      <c r="E5" s="5">
+        <f>$C5-$D5</f>
+        <v>61.419999999999987</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="6">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="6">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="6">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="6">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="6">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="6">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="6">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="6">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="6">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="6">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="6">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="6">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="6">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="6">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="6">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="6">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="6">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="6">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="6">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="6">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="6">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" s="6">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="6">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="6">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="6">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="6">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59" s="6">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" s="6">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" s="6">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" s="6">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" s="6">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="6">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" s="6">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="6">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="6">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" s="6">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" s="6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" s="6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72" s="6">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73" s="6">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74" s="6">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" s="6">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" s="6">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D77" s="6">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D78" s="6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" s="6">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80" s="6">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" s="6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D82" s="6">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83" s="6">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D84" s="6">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85" s="6">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D86" s="6">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D87" s="6">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88" s="6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D89" s="6">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D90" s="6">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D91" s="6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92" s="6">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D93" s="6">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D94" s="6">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D95" s="6">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D96" s="6">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D97" s="6">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D98" s="6">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D99" s="6">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D100" s="6">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D101" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D102" s="6">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D103" s="6">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D104" s="6">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D105" s="6">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D106" s="6">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D107" s="6">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D108" s="6">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D109" s="6">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D110" s="6">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D111" s="6">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D112" s="6">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D113" s="6">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D114" s="6">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D115" s="6">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D116" s="6">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D117" s="6">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D118" s="6">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D119" s="6">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D120" s="6">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D121" s="6">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D122" s="6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D123" s="6">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D124" s="6">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D125" s="6">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D126" s="6">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D127" s="6">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D128" s="6">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D129" s="6">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D130" s="6">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D131" s="6">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D132" s="6">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D133" s="6">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D134" s="6">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D135" s="6">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D136" s="6">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D137" s="6">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D138" s="6">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D139" s="6">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D140" s="6">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D141" s="6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D142" s="6">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D143" s="6">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D144" s="6">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D145" s="6">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D146" s="6">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D147" s="6">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D148" s="6">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D149" s="6">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D150" s="6">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D151" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D152" s="6">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D153" s="6">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D154" s="6">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D155" s="6">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D156" s="6">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D157" s="6">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D158" s="6">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D159" s="6">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D160" s="6">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D161" s="6">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D162" s="6">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D163" s="6">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D164" s="6">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D165" s="6">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D166" s="6">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D167" s="6">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D168" s="6">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D169" s="6">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D170" s="6">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D171" s="6">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D172" s="6">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D173" s="6">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D174" s="6">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D175" s="6">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D176" s="6">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D177" s="6">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D178" s="6">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D179" s="6">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D180" s="6">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D181" s="6">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D182" s="6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D183" s="6">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D184" s="6">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D185" s="6">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D186" s="6">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D187" s="6">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D188" s="6">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D189" s="6">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D190" s="6">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D191" s="6">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D192" s="6">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D193" s="6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D194" s="6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D195" s="6">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D196" s="6">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D197" s="6">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D198" s="6">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D199" s="6">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D200" s="6">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D201" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D202" s="6">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D203" s="6">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D204" s="6">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D205" s="6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D206" s="6">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D207" s="6">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D208" s="6">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D209" s="6">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D210" s="6">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D211" s="6">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D212" s="6">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D213" s="6">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D214" s="6">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D215" s="6">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D216" s="6">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D217" s="6">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D218" s="6">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D219" s="6">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D220" s="6">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D221" s="6">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D222" s="6">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D223" s="6">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D224" s="6">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D225" s="6">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D226" s="6">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D227" s="6">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D228" s="6">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D229" s="6">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D230" s="6">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D231" s="6">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D232" s="6">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D233" s="6">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D234" s="6">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D235" s="6">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D236" s="6">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D237" s="6">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="D238" s="6">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D239" s="6">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D240" s="6">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D241" s="6">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D242" s="6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D243" s="6">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D244" s="6">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D245" s="6">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D246" s="6">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="D247" s="6">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D248" s="6">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D249" s="6">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D250" s="6">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D251" s="6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D252" s="6">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D253" s="6">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="D254" s="6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D255" s="6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D256" s="6">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D257" s="6">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="D258" s="6">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D259" s="6">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D260" s="6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D261" s="6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D262" s="6">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D263" s="6">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D264" s="6">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D265" s="6">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D266" s="6">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="10" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="10" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="10" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E4">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1785,7 +5469,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E4</xm:sqref>
+          <xm:sqref>E2:E5</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="368">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>01/05/2023</t>
-  </si>
-  <si>
-    <t>01/06/2023</t>
   </si>
   <si>
     <t>01/07/2023</t>
@@ -2754,7 +2751,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E365"/>
+  <dimension ref="A1:E364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2859,8 +2856,18 @@
       <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="B6" s="5">
+        <v>3.05</v>
+      </c>
+      <c r="C6" s="5">
+        <v>168.47</v>
+      </c>
       <c r="D6" s="6">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="E6" s="5">
+        <f>$C6-$D6</f>
+        <v>62.47</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2868,7 +2875,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="6">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2876,7 +2883,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="6">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2884,7 +2891,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="6">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2892,7 +2899,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="6">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2900,7 +2907,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="6">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2908,7 +2915,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="6">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2916,7 +2923,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="6">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2924,7 +2931,7 @@
         <v>17</v>
       </c>
       <c r="D14" s="6">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2932,7 +2939,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="6">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2940,7 +2947,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="6">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2948,7 +2955,7 @@
         <v>20</v>
       </c>
       <c r="D17" s="6">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2956,7 +2963,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="6">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2964,7 +2971,7 @@
         <v>22</v>
       </c>
       <c r="D19" s="6">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2972,7 +2979,7 @@
         <v>23</v>
       </c>
       <c r="D20" s="6">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2980,7 +2987,7 @@
         <v>24</v>
       </c>
       <c r="D21" s="6">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2988,7 +2995,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="6">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2996,7 +3003,7 @@
         <v>26</v>
       </c>
       <c r="D23" s="6">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3004,7 +3011,7 @@
         <v>27</v>
       </c>
       <c r="D24" s="6">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3012,7 +3019,7 @@
         <v>28</v>
       </c>
       <c r="D25" s="6">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3020,7 +3027,7 @@
         <v>29</v>
       </c>
       <c r="D26" s="6">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3028,7 +3035,7 @@
         <v>30</v>
       </c>
       <c r="D27" s="6">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3036,7 +3043,7 @@
         <v>31</v>
       </c>
       <c r="D28" s="6">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3044,7 +3051,7 @@
         <v>32</v>
       </c>
       <c r="D29" s="6">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3052,7 +3059,7 @@
         <v>33</v>
       </c>
       <c r="D30" s="6">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3060,7 +3067,7 @@
         <v>34</v>
       </c>
       <c r="D31" s="6">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3068,7 +3075,7 @@
         <v>35</v>
       </c>
       <c r="D32" s="6">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3076,7 +3083,7 @@
         <v>36</v>
       </c>
       <c r="D33" s="6">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3084,7 +3091,7 @@
         <v>37</v>
       </c>
       <c r="D34" s="6">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3092,7 +3099,7 @@
         <v>38</v>
       </c>
       <c r="D35" s="6">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3100,7 +3107,7 @@
         <v>39</v>
       </c>
       <c r="D36" s="6">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3108,7 +3115,7 @@
         <v>40</v>
       </c>
       <c r="D37" s="6">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3116,7 +3123,7 @@
         <v>41</v>
       </c>
       <c r="D38" s="6">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3124,7 +3131,7 @@
         <v>42</v>
       </c>
       <c r="D39" s="6">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3132,7 +3139,7 @@
         <v>43</v>
       </c>
       <c r="D40" s="6">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3140,7 +3147,7 @@
         <v>44</v>
       </c>
       <c r="D41" s="6">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3148,7 +3155,7 @@
         <v>45</v>
       </c>
       <c r="D42" s="6">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3156,7 +3163,7 @@
         <v>46</v>
       </c>
       <c r="D43" s="6">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3164,7 +3171,7 @@
         <v>47</v>
       </c>
       <c r="D44" s="6">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3172,7 +3179,7 @@
         <v>48</v>
       </c>
       <c r="D45" s="6">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3180,7 +3187,7 @@
         <v>49</v>
       </c>
       <c r="D46" s="6">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3188,7 +3195,7 @@
         <v>50</v>
       </c>
       <c r="D47" s="6">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3196,7 +3203,7 @@
         <v>51</v>
       </c>
       <c r="D48" s="6">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3204,7 +3211,7 @@
         <v>52</v>
       </c>
       <c r="D49" s="6">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3212,7 +3219,7 @@
         <v>53</v>
       </c>
       <c r="D50" s="6">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3220,7 +3227,7 @@
         <v>54</v>
       </c>
       <c r="D51" s="6">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3228,7 +3235,7 @@
         <v>55</v>
       </c>
       <c r="D52" s="6">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3236,7 +3243,7 @@
         <v>56</v>
       </c>
       <c r="D53" s="6">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -3244,7 +3251,7 @@
         <v>57</v>
       </c>
       <c r="D54" s="6">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3252,7 +3259,7 @@
         <v>58</v>
       </c>
       <c r="D55" s="6">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -3260,7 +3267,7 @@
         <v>59</v>
       </c>
       <c r="D56" s="6">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3268,7 +3275,7 @@
         <v>60</v>
       </c>
       <c r="D57" s="6">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3276,7 +3283,7 @@
         <v>61</v>
       </c>
       <c r="D58" s="6">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -3284,7 +3291,7 @@
         <v>62</v>
       </c>
       <c r="D59" s="6">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3292,7 +3299,7 @@
         <v>63</v>
       </c>
       <c r="D60" s="6">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3300,7 +3307,7 @@
         <v>64</v>
       </c>
       <c r="D61" s="6">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3308,7 +3315,7 @@
         <v>65</v>
       </c>
       <c r="D62" s="6">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -3316,7 +3323,7 @@
         <v>66</v>
       </c>
       <c r="D63" s="6">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3324,7 +3331,7 @@
         <v>67</v>
       </c>
       <c r="D64" s="6">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3332,7 +3339,7 @@
         <v>68</v>
       </c>
       <c r="D65" s="6">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3340,7 +3347,7 @@
         <v>69</v>
       </c>
       <c r="D66" s="6">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3348,7 +3355,7 @@
         <v>70</v>
       </c>
       <c r="D67" s="6">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3356,7 +3363,7 @@
         <v>71</v>
       </c>
       <c r="D68" s="6">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3364,7 +3371,7 @@
         <v>72</v>
       </c>
       <c r="D69" s="6">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3372,7 +3379,7 @@
         <v>73</v>
       </c>
       <c r="D70" s="6">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3380,7 +3387,7 @@
         <v>74</v>
       </c>
       <c r="D71" s="6">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3388,7 +3395,7 @@
         <v>75</v>
       </c>
       <c r="D72" s="6">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3396,7 +3403,7 @@
         <v>76</v>
       </c>
       <c r="D73" s="6">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3404,7 +3411,7 @@
         <v>77</v>
       </c>
       <c r="D74" s="6">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3412,7 +3419,7 @@
         <v>78</v>
       </c>
       <c r="D75" s="6">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3420,7 +3427,7 @@
         <v>79</v>
       </c>
       <c r="D76" s="6">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -3428,7 +3435,7 @@
         <v>80</v>
       </c>
       <c r="D77" s="6">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3436,7 +3443,7 @@
         <v>81</v>
       </c>
       <c r="D78" s="6">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -3444,7 +3451,7 @@
         <v>82</v>
       </c>
       <c r="D79" s="6">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3452,7 +3459,7 @@
         <v>83</v>
       </c>
       <c r="D80" s="6">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3460,7 +3467,7 @@
         <v>84</v>
       </c>
       <c r="D81" s="6">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3468,7 +3475,7 @@
         <v>85</v>
       </c>
       <c r="D82" s="6">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -3476,7 +3483,7 @@
         <v>86</v>
       </c>
       <c r="D83" s="6">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3484,7 +3491,7 @@
         <v>87</v>
       </c>
       <c r="D84" s="6">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -3492,7 +3499,7 @@
         <v>88</v>
       </c>
       <c r="D85" s="6">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3500,7 +3507,7 @@
         <v>89</v>
       </c>
       <c r="D86" s="6">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3508,7 +3515,7 @@
         <v>90</v>
       </c>
       <c r="D87" s="6">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3516,7 +3523,7 @@
         <v>91</v>
       </c>
       <c r="D88" s="6">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3524,7 +3531,7 @@
         <v>92</v>
       </c>
       <c r="D89" s="6">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3532,7 +3539,7 @@
         <v>93</v>
       </c>
       <c r="D90" s="6">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3540,7 +3547,7 @@
         <v>94</v>
       </c>
       <c r="D91" s="6">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -3548,7 +3555,7 @@
         <v>95</v>
       </c>
       <c r="D92" s="6">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -3556,7 +3563,7 @@
         <v>96</v>
       </c>
       <c r="D93" s="6">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -3564,7 +3571,7 @@
         <v>97</v>
       </c>
       <c r="D94" s="6">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3572,7 +3579,7 @@
         <v>98</v>
       </c>
       <c r="D95" s="6">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3580,7 +3587,7 @@
         <v>99</v>
       </c>
       <c r="D96" s="6">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3588,7 +3595,7 @@
         <v>100</v>
       </c>
       <c r="D97" s="6">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3596,7 +3603,7 @@
         <v>101</v>
       </c>
       <c r="D98" s="6">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3604,7 +3611,7 @@
         <v>102</v>
       </c>
       <c r="D99" s="6">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3612,7 +3619,7 @@
         <v>103</v>
       </c>
       <c r="D100" s="6">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3620,7 +3627,7 @@
         <v>104</v>
       </c>
       <c r="D101" s="6">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3628,7 +3635,7 @@
         <v>105</v>
       </c>
       <c r="D102" s="6">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3636,7 +3643,7 @@
         <v>106</v>
       </c>
       <c r="D103" s="6">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3644,7 +3651,7 @@
         <v>107</v>
       </c>
       <c r="D104" s="6">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3652,7 +3659,7 @@
         <v>108</v>
       </c>
       <c r="D105" s="6">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3660,7 +3667,7 @@
         <v>109</v>
       </c>
       <c r="D106" s="6">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3668,7 +3675,7 @@
         <v>110</v>
       </c>
       <c r="D107" s="6">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3676,7 +3683,7 @@
         <v>111</v>
       </c>
       <c r="D108" s="6">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3684,7 +3691,7 @@
         <v>112</v>
       </c>
       <c r="D109" s="6">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3692,7 +3699,7 @@
         <v>113</v>
       </c>
       <c r="D110" s="6">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3700,7 +3707,7 @@
         <v>114</v>
       </c>
       <c r="D111" s="6">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3708,7 +3715,7 @@
         <v>115</v>
       </c>
       <c r="D112" s="6">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3716,7 +3723,7 @@
         <v>116</v>
       </c>
       <c r="D113" s="6">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3724,7 +3731,7 @@
         <v>117</v>
       </c>
       <c r="D114" s="6">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3732,7 +3739,7 @@
         <v>118</v>
       </c>
       <c r="D115" s="6">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3740,7 +3747,7 @@
         <v>119</v>
       </c>
       <c r="D116" s="6">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3748,7 +3755,7 @@
         <v>120</v>
       </c>
       <c r="D117" s="6">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3756,7 +3763,7 @@
         <v>121</v>
       </c>
       <c r="D118" s="6">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3764,7 +3771,7 @@
         <v>122</v>
       </c>
       <c r="D119" s="6">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3772,7 +3779,7 @@
         <v>123</v>
       </c>
       <c r="D120" s="6">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3780,7 +3787,7 @@
         <v>124</v>
       </c>
       <c r="D121" s="6">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3788,7 +3795,7 @@
         <v>125</v>
       </c>
       <c r="D122" s="6">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3796,7 +3803,7 @@
         <v>126</v>
       </c>
       <c r="D123" s="6">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3804,7 +3811,7 @@
         <v>127</v>
       </c>
       <c r="D124" s="6">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3812,7 +3819,7 @@
         <v>128</v>
       </c>
       <c r="D125" s="6">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3820,7 +3827,7 @@
         <v>129</v>
       </c>
       <c r="D126" s="6">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3828,7 +3835,7 @@
         <v>130</v>
       </c>
       <c r="D127" s="6">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3836,7 +3843,7 @@
         <v>131</v>
       </c>
       <c r="D128" s="6">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3844,7 +3851,7 @@
         <v>132</v>
       </c>
       <c r="D129" s="6">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3852,7 +3859,7 @@
         <v>133</v>
       </c>
       <c r="D130" s="6">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3860,7 +3867,7 @@
         <v>134</v>
       </c>
       <c r="D131" s="6">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3868,7 +3875,7 @@
         <v>135</v>
       </c>
       <c r="D132" s="6">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3876,7 +3883,7 @@
         <v>136</v>
       </c>
       <c r="D133" s="6">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3884,7 +3891,7 @@
         <v>137</v>
       </c>
       <c r="D134" s="6">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3892,7 +3899,7 @@
         <v>138</v>
       </c>
       <c r="D135" s="6">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3900,7 +3907,7 @@
         <v>139</v>
       </c>
       <c r="D136" s="6">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3908,7 +3915,7 @@
         <v>140</v>
       </c>
       <c r="D137" s="6">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3916,7 +3923,7 @@
         <v>141</v>
       </c>
       <c r="D138" s="6">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3924,7 +3931,7 @@
         <v>142</v>
       </c>
       <c r="D139" s="6">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3932,7 +3939,7 @@
         <v>143</v>
       </c>
       <c r="D140" s="6">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3940,7 +3947,7 @@
         <v>144</v>
       </c>
       <c r="D141" s="6">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3948,7 +3955,7 @@
         <v>145</v>
       </c>
       <c r="D142" s="6">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3956,7 +3963,7 @@
         <v>146</v>
       </c>
       <c r="D143" s="6">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3964,7 +3971,7 @@
         <v>147</v>
       </c>
       <c r="D144" s="6">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3972,7 +3979,7 @@
         <v>148</v>
       </c>
       <c r="D145" s="6">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -3980,7 +3987,7 @@
         <v>149</v>
       </c>
       <c r="D146" s="6">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3988,7 +3995,7 @@
         <v>150</v>
       </c>
       <c r="D147" s="6">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -3996,7 +4003,7 @@
         <v>151</v>
       </c>
       <c r="D148" s="6">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -4004,7 +4011,7 @@
         <v>152</v>
       </c>
       <c r="D149" s="6">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4012,7 +4019,7 @@
         <v>153</v>
       </c>
       <c r="D150" s="6">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -4020,7 +4027,7 @@
         <v>154</v>
       </c>
       <c r="D151" s="6">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -4028,7 +4035,7 @@
         <v>155</v>
       </c>
       <c r="D152" s="6">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4036,7 +4043,7 @@
         <v>156</v>
       </c>
       <c r="D153" s="6">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -4044,7 +4051,7 @@
         <v>157</v>
       </c>
       <c r="D154" s="6">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -4052,7 +4059,7 @@
         <v>158</v>
       </c>
       <c r="D155" s="6">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -4060,7 +4067,7 @@
         <v>159</v>
       </c>
       <c r="D156" s="6">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -4068,7 +4075,7 @@
         <v>160</v>
       </c>
       <c r="D157" s="6">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -4076,7 +4083,7 @@
         <v>161</v>
       </c>
       <c r="D158" s="6">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -4084,7 +4091,7 @@
         <v>162</v>
       </c>
       <c r="D159" s="6">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -4092,7 +4099,7 @@
         <v>163</v>
       </c>
       <c r="D160" s="6">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -4100,7 +4107,7 @@
         <v>164</v>
       </c>
       <c r="D161" s="6">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -4108,7 +4115,7 @@
         <v>165</v>
       </c>
       <c r="D162" s="6">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4116,7 +4123,7 @@
         <v>166</v>
       </c>
       <c r="D163" s="6">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -4124,7 +4131,7 @@
         <v>167</v>
       </c>
       <c r="D164" s="6">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -4132,7 +4139,7 @@
         <v>168</v>
       </c>
       <c r="D165" s="6">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -4140,7 +4147,7 @@
         <v>169</v>
       </c>
       <c r="D166" s="6">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -4148,7 +4155,7 @@
         <v>170</v>
       </c>
       <c r="D167" s="6">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -4156,7 +4163,7 @@
         <v>171</v>
       </c>
       <c r="D168" s="6">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -4164,7 +4171,7 @@
         <v>172</v>
       </c>
       <c r="D169" s="6">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -4172,7 +4179,7 @@
         <v>173</v>
       </c>
       <c r="D170" s="6">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -4180,7 +4187,7 @@
         <v>174</v>
       </c>
       <c r="D171" s="6">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4188,7 +4195,7 @@
         <v>175</v>
       </c>
       <c r="D172" s="6">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -4196,7 +4203,7 @@
         <v>176</v>
       </c>
       <c r="D173" s="6">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4204,7 +4211,7 @@
         <v>177</v>
       </c>
       <c r="D174" s="6">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -4212,7 +4219,7 @@
         <v>178</v>
       </c>
       <c r="D175" s="6">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -4220,7 +4227,7 @@
         <v>179</v>
       </c>
       <c r="D176" s="6">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -4228,7 +4235,7 @@
         <v>180</v>
       </c>
       <c r="D177" s="6">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -4236,7 +4243,7 @@
         <v>181</v>
       </c>
       <c r="D178" s="6">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -4244,7 +4251,7 @@
         <v>182</v>
       </c>
       <c r="D179" s="6">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -4252,7 +4259,7 @@
         <v>183</v>
       </c>
       <c r="D180" s="6">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4260,7 +4267,7 @@
         <v>184</v>
       </c>
       <c r="D181" s="6">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4268,7 +4275,7 @@
         <v>185</v>
       </c>
       <c r="D182" s="6">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4276,7 +4283,7 @@
         <v>186</v>
       </c>
       <c r="D183" s="6">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -4284,7 +4291,7 @@
         <v>187</v>
       </c>
       <c r="D184" s="6">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4292,7 +4299,7 @@
         <v>188</v>
       </c>
       <c r="D185" s="6">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -4300,7 +4307,7 @@
         <v>189</v>
       </c>
       <c r="D186" s="6">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4308,7 +4315,7 @@
         <v>190</v>
       </c>
       <c r="D187" s="6">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4316,7 +4323,7 @@
         <v>191</v>
       </c>
       <c r="D188" s="6">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -4324,7 +4331,7 @@
         <v>192</v>
       </c>
       <c r="D189" s="6">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4332,7 +4339,7 @@
         <v>193</v>
       </c>
       <c r="D190" s="6">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4340,7 +4347,7 @@
         <v>194</v>
       </c>
       <c r="D191" s="6">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -4348,7 +4355,7 @@
         <v>195</v>
       </c>
       <c r="D192" s="6">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4356,7 +4363,7 @@
         <v>196</v>
       </c>
       <c r="D193" s="6">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4364,7 +4371,7 @@
         <v>197</v>
       </c>
       <c r="D194" s="6">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4372,7 +4379,7 @@
         <v>198</v>
       </c>
       <c r="D195" s="6">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4380,7 +4387,7 @@
         <v>199</v>
       </c>
       <c r="D196" s="6">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4388,7 +4395,7 @@
         <v>200</v>
       </c>
       <c r="D197" s="6">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4396,7 +4403,7 @@
         <v>201</v>
       </c>
       <c r="D198" s="6">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4404,7 +4411,7 @@
         <v>202</v>
       </c>
       <c r="D199" s="6">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4412,7 +4419,7 @@
         <v>203</v>
       </c>
       <c r="D200" s="6">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4420,7 +4427,7 @@
         <v>204</v>
       </c>
       <c r="D201" s="6">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4428,7 +4435,7 @@
         <v>205</v>
       </c>
       <c r="D202" s="6">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4436,7 +4443,7 @@
         <v>206</v>
       </c>
       <c r="D203" s="6">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4444,7 +4451,7 @@
         <v>207</v>
       </c>
       <c r="D204" s="6">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4452,7 +4459,7 @@
         <v>208</v>
       </c>
       <c r="D205" s="6">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4460,7 +4467,7 @@
         <v>209</v>
       </c>
       <c r="D206" s="6">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4468,7 +4475,7 @@
         <v>210</v>
       </c>
       <c r="D207" s="6">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4476,7 +4483,7 @@
         <v>211</v>
       </c>
       <c r="D208" s="6">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4484,7 +4491,7 @@
         <v>212</v>
       </c>
       <c r="D209" s="6">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4492,7 +4499,7 @@
         <v>213</v>
       </c>
       <c r="D210" s="6">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4500,7 +4507,7 @@
         <v>214</v>
       </c>
       <c r="D211" s="6">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -4508,7 +4515,7 @@
         <v>215</v>
       </c>
       <c r="D212" s="6">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4516,7 +4523,7 @@
         <v>216</v>
       </c>
       <c r="D213" s="6">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -4524,7 +4531,7 @@
         <v>217</v>
       </c>
       <c r="D214" s="6">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -4532,7 +4539,7 @@
         <v>218</v>
       </c>
       <c r="D215" s="6">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -4540,7 +4547,7 @@
         <v>219</v>
       </c>
       <c r="D216" s="6">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -4548,7 +4555,7 @@
         <v>220</v>
       </c>
       <c r="D217" s="6">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -4556,7 +4563,7 @@
         <v>221</v>
       </c>
       <c r="D218" s="6">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -4564,7 +4571,7 @@
         <v>222</v>
       </c>
       <c r="D219" s="6">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -4572,7 +4579,7 @@
         <v>223</v>
       </c>
       <c r="D220" s="6">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -4580,7 +4587,7 @@
         <v>224</v>
       </c>
       <c r="D221" s="6">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -4588,7 +4595,7 @@
         <v>225</v>
       </c>
       <c r="D222" s="6">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -4596,7 +4603,7 @@
         <v>226</v>
       </c>
       <c r="D223" s="6">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -4604,7 +4611,7 @@
         <v>227</v>
       </c>
       <c r="D224" s="6">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -4612,7 +4619,7 @@
         <v>228</v>
       </c>
       <c r="D225" s="6">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -4620,7 +4627,7 @@
         <v>229</v>
       </c>
       <c r="D226" s="6">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -4628,7 +4635,7 @@
         <v>230</v>
       </c>
       <c r="D227" s="6">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -4636,7 +4643,7 @@
         <v>231</v>
       </c>
       <c r="D228" s="6">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -4644,7 +4651,7 @@
         <v>232</v>
       </c>
       <c r="D229" s="6">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -4652,7 +4659,7 @@
         <v>233</v>
       </c>
       <c r="D230" s="6">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -4660,7 +4667,7 @@
         <v>234</v>
       </c>
       <c r="D231" s="6">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -4668,7 +4675,7 @@
         <v>235</v>
       </c>
       <c r="D232" s="6">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -4676,7 +4683,7 @@
         <v>236</v>
       </c>
       <c r="D233" s="6">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -4684,7 +4691,7 @@
         <v>237</v>
       </c>
       <c r="D234" s="6">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -4692,7 +4699,7 @@
         <v>238</v>
       </c>
       <c r="D235" s="6">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -4700,7 +4707,7 @@
         <v>239</v>
       </c>
       <c r="D236" s="6">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -4708,7 +4715,7 @@
         <v>240</v>
       </c>
       <c r="D237" s="6">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -4716,7 +4723,7 @@
         <v>241</v>
       </c>
       <c r="D238" s="6">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -4724,7 +4731,7 @@
         <v>242</v>
       </c>
       <c r="D239" s="6">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -4732,7 +4739,7 @@
         <v>243</v>
       </c>
       <c r="D240" s="6">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -4740,7 +4747,7 @@
         <v>244</v>
       </c>
       <c r="D241" s="6">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -4748,7 +4755,7 @@
         <v>245</v>
       </c>
       <c r="D242" s="6">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -4756,7 +4763,7 @@
         <v>246</v>
       </c>
       <c r="D243" s="6">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -4764,7 +4771,7 @@
         <v>247</v>
       </c>
       <c r="D244" s="6">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -4772,7 +4779,7 @@
         <v>248</v>
       </c>
       <c r="D245" s="6">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -4780,7 +4787,7 @@
         <v>249</v>
       </c>
       <c r="D246" s="6">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -4788,7 +4795,7 @@
         <v>250</v>
       </c>
       <c r="D247" s="6">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -4796,7 +4803,7 @@
         <v>251</v>
       </c>
       <c r="D248" s="6">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -4804,7 +4811,7 @@
         <v>252</v>
       </c>
       <c r="D249" s="6">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -4812,7 +4819,7 @@
         <v>253</v>
       </c>
       <c r="D250" s="6">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -4820,7 +4827,7 @@
         <v>254</v>
       </c>
       <c r="D251" s="6">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -4828,7 +4835,7 @@
         <v>255</v>
       </c>
       <c r="D252" s="6">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -4836,7 +4843,7 @@
         <v>256</v>
       </c>
       <c r="D253" s="6">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -4844,7 +4851,7 @@
         <v>257</v>
       </c>
       <c r="D254" s="6">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -4852,7 +4859,7 @@
         <v>258</v>
       </c>
       <c r="D255" s="6">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -4860,7 +4867,7 @@
         <v>259</v>
       </c>
       <c r="D256" s="6">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -4868,7 +4875,7 @@
         <v>260</v>
       </c>
       <c r="D257" s="6">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -4876,7 +4883,7 @@
         <v>261</v>
       </c>
       <c r="D258" s="6">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -4884,7 +4891,7 @@
         <v>262</v>
       </c>
       <c r="D259" s="6">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -4892,7 +4899,7 @@
         <v>263</v>
       </c>
       <c r="D260" s="6">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -4900,7 +4907,7 @@
         <v>264</v>
       </c>
       <c r="D261" s="6">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -4908,7 +4915,7 @@
         <v>265</v>
       </c>
       <c r="D262" s="6">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -4916,7 +4923,7 @@
         <v>266</v>
       </c>
       <c r="D263" s="6">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -4924,7 +4931,7 @@
         <v>267</v>
       </c>
       <c r="D264" s="6">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -4932,16 +4939,13 @@
         <v>268</v>
       </c>
       <c r="D265" s="6">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="D266" s="6">
-        <v>365</v>
-      </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
@@ -5433,14 +5437,9 @@
         <v>367</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="10" t="s">
-        <v>368</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5449,6 +5448,20 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{D49CCF03-75CF-4BD5-AA46-E989FFF4BE7B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8310665B-DC0E-4B4E-B761-9F7FC298578E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5471,6 +5484,19 @@
           </x14:cfRule>
           <xm:sqref>E2:E5</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8310665B-DC0E-4B4E-B761-9F7FC298578E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E6</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="367">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>01/07/2023</t>
-  </si>
-  <si>
-    <t>01/08/2023</t>
   </si>
   <si>
     <t>01/09/2023</t>
@@ -2751,7 +2748,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E364"/>
+  <dimension ref="A1:E363"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2794,7 +2791,7 @@
         <v>101</v>
       </c>
       <c r="E2" s="5">
-        <f>$C2-$D2</f>
+        <f t="shared" ref="E2:E7" si="0">$C2-$D2</f>
         <v>57.699999999999989</v>
       </c>
     </row>
@@ -2812,7 +2809,7 @@
         <v>102</v>
       </c>
       <c r="E3" s="5">
-        <f>$C3-$D3</f>
+        <f t="shared" si="0"/>
         <v>58.930000000000007</v>
       </c>
     </row>
@@ -2830,7 +2827,7 @@
         <v>103</v>
       </c>
       <c r="E4" s="5">
-        <f>$C4-$D4</f>
+        <f t="shared" si="0"/>
         <v>60.180000000000007</v>
       </c>
     </row>
@@ -2848,7 +2845,7 @@
         <v>104</v>
       </c>
       <c r="E5" s="5">
-        <f>$C5-$D5</f>
+        <f t="shared" si="0"/>
         <v>61.419999999999987</v>
       </c>
     </row>
@@ -2866,7 +2863,7 @@
         <v>106</v>
       </c>
       <c r="E6" s="5">
-        <f>$C6-$D6</f>
+        <f t="shared" si="0"/>
         <v>62.47</v>
       </c>
     </row>
@@ -2874,8 +2871,18 @@
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="B7" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>170.57</v>
+      </c>
       <c r="D7" s="6">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>62.569999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2883,7 +2890,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="6">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2891,7 +2898,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="6">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2899,7 +2906,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="6">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2907,7 +2914,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="6">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2915,7 +2922,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="6">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2923,7 +2930,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="6">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2931,7 +2938,7 @@
         <v>17</v>
       </c>
       <c r="D14" s="6">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2939,7 +2946,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="6">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2947,7 +2954,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="6">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2955,7 +2962,7 @@
         <v>20</v>
       </c>
       <c r="D17" s="6">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2963,7 +2970,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="6">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2971,7 +2978,7 @@
         <v>22</v>
       </c>
       <c r="D19" s="6">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2979,7 +2986,7 @@
         <v>23</v>
       </c>
       <c r="D20" s="6">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2987,7 +2994,7 @@
         <v>24</v>
       </c>
       <c r="D21" s="6">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2995,7 +3002,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="6">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3003,7 +3010,7 @@
         <v>26</v>
       </c>
       <c r="D23" s="6">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3011,7 +3018,7 @@
         <v>27</v>
       </c>
       <c r="D24" s="6">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3019,7 +3026,7 @@
         <v>28</v>
       </c>
       <c r="D25" s="6">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3027,7 +3034,7 @@
         <v>29</v>
       </c>
       <c r="D26" s="6">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3035,7 +3042,7 @@
         <v>30</v>
       </c>
       <c r="D27" s="6">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3043,7 +3050,7 @@
         <v>31</v>
       </c>
       <c r="D28" s="6">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3051,7 +3058,7 @@
         <v>32</v>
       </c>
       <c r="D29" s="6">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3059,7 +3066,7 @@
         <v>33</v>
       </c>
       <c r="D30" s="6">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3067,7 +3074,7 @@
         <v>34</v>
       </c>
       <c r="D31" s="6">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3075,7 +3082,7 @@
         <v>35</v>
       </c>
       <c r="D32" s="6">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3083,7 +3090,7 @@
         <v>36</v>
       </c>
       <c r="D33" s="6">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3091,7 +3098,7 @@
         <v>37</v>
       </c>
       <c r="D34" s="6">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3099,7 +3106,7 @@
         <v>38</v>
       </c>
       <c r="D35" s="6">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3107,7 +3114,7 @@
         <v>39</v>
       </c>
       <c r="D36" s="6">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3115,7 +3122,7 @@
         <v>40</v>
       </c>
       <c r="D37" s="6">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3123,7 +3130,7 @@
         <v>41</v>
       </c>
       <c r="D38" s="6">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3131,7 +3138,7 @@
         <v>42</v>
       </c>
       <c r="D39" s="6">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3139,7 +3146,7 @@
         <v>43</v>
       </c>
       <c r="D40" s="6">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3147,7 +3154,7 @@
         <v>44</v>
       </c>
       <c r="D41" s="6">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3155,7 +3162,7 @@
         <v>45</v>
       </c>
       <c r="D42" s="6">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3163,7 +3170,7 @@
         <v>46</v>
       </c>
       <c r="D43" s="6">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3171,7 +3178,7 @@
         <v>47</v>
       </c>
       <c r="D44" s="6">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3179,7 +3186,7 @@
         <v>48</v>
       </c>
       <c r="D45" s="6">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3187,7 +3194,7 @@
         <v>49</v>
       </c>
       <c r="D46" s="6">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3195,7 +3202,7 @@
         <v>50</v>
       </c>
       <c r="D47" s="6">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3203,7 +3210,7 @@
         <v>51</v>
       </c>
       <c r="D48" s="6">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3211,7 +3218,7 @@
         <v>52</v>
       </c>
       <c r="D49" s="6">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3219,7 +3226,7 @@
         <v>53</v>
       </c>
       <c r="D50" s="6">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3227,7 +3234,7 @@
         <v>54</v>
       </c>
       <c r="D51" s="6">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3235,7 +3242,7 @@
         <v>55</v>
       </c>
       <c r="D52" s="6">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3243,7 +3250,7 @@
         <v>56</v>
       </c>
       <c r="D53" s="6">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -3251,7 +3258,7 @@
         <v>57</v>
       </c>
       <c r="D54" s="6">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3259,7 +3266,7 @@
         <v>58</v>
       </c>
       <c r="D55" s="6">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -3267,7 +3274,7 @@
         <v>59</v>
       </c>
       <c r="D56" s="6">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3275,7 +3282,7 @@
         <v>60</v>
       </c>
       <c r="D57" s="6">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3283,7 +3290,7 @@
         <v>61</v>
       </c>
       <c r="D58" s="6">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -3291,7 +3298,7 @@
         <v>62</v>
       </c>
       <c r="D59" s="6">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3299,7 +3306,7 @@
         <v>63</v>
       </c>
       <c r="D60" s="6">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3307,7 +3314,7 @@
         <v>64</v>
       </c>
       <c r="D61" s="6">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3315,7 +3322,7 @@
         <v>65</v>
       </c>
       <c r="D62" s="6">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -3323,7 +3330,7 @@
         <v>66</v>
       </c>
       <c r="D63" s="6">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3331,7 +3338,7 @@
         <v>67</v>
       </c>
       <c r="D64" s="6">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3339,7 +3346,7 @@
         <v>68</v>
       </c>
       <c r="D65" s="6">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3347,7 +3354,7 @@
         <v>69</v>
       </c>
       <c r="D66" s="6">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3355,7 +3362,7 @@
         <v>70</v>
       </c>
       <c r="D67" s="6">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3363,7 +3370,7 @@
         <v>71</v>
       </c>
       <c r="D68" s="6">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3371,7 +3378,7 @@
         <v>72</v>
       </c>
       <c r="D69" s="6">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3379,7 +3386,7 @@
         <v>73</v>
       </c>
       <c r="D70" s="6">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3387,7 +3394,7 @@
         <v>74</v>
       </c>
       <c r="D71" s="6">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3395,7 +3402,7 @@
         <v>75</v>
       </c>
       <c r="D72" s="6">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3403,7 +3410,7 @@
         <v>76</v>
       </c>
       <c r="D73" s="6">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3411,7 +3418,7 @@
         <v>77</v>
       </c>
       <c r="D74" s="6">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3419,7 +3426,7 @@
         <v>78</v>
       </c>
       <c r="D75" s="6">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3427,7 +3434,7 @@
         <v>79</v>
       </c>
       <c r="D76" s="6">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -3435,7 +3442,7 @@
         <v>80</v>
       </c>
       <c r="D77" s="6">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3443,7 +3450,7 @@
         <v>81</v>
       </c>
       <c r="D78" s="6">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -3451,7 +3458,7 @@
         <v>82</v>
       </c>
       <c r="D79" s="6">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3459,7 +3466,7 @@
         <v>83</v>
       </c>
       <c r="D80" s="6">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3467,7 +3474,7 @@
         <v>84</v>
       </c>
       <c r="D81" s="6">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3475,7 +3482,7 @@
         <v>85</v>
       </c>
       <c r="D82" s="6">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -3483,7 +3490,7 @@
         <v>86</v>
       </c>
       <c r="D83" s="6">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3491,7 +3498,7 @@
         <v>87</v>
       </c>
       <c r="D84" s="6">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -3499,7 +3506,7 @@
         <v>88</v>
       </c>
       <c r="D85" s="6">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3507,7 +3514,7 @@
         <v>89</v>
       </c>
       <c r="D86" s="6">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3515,7 +3522,7 @@
         <v>90</v>
       </c>
       <c r="D87" s="6">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3523,7 +3530,7 @@
         <v>91</v>
       </c>
       <c r="D88" s="6">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3531,7 +3538,7 @@
         <v>92</v>
       </c>
       <c r="D89" s="6">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3539,7 +3546,7 @@
         <v>93</v>
       </c>
       <c r="D90" s="6">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3547,7 +3554,7 @@
         <v>94</v>
       </c>
       <c r="D91" s="6">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -3555,7 +3562,7 @@
         <v>95</v>
       </c>
       <c r="D92" s="6">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -3563,7 +3570,7 @@
         <v>96</v>
       </c>
       <c r="D93" s="6">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -3571,7 +3578,7 @@
         <v>97</v>
       </c>
       <c r="D94" s="6">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3579,7 +3586,7 @@
         <v>98</v>
       </c>
       <c r="D95" s="6">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3587,7 +3594,7 @@
         <v>99</v>
       </c>
       <c r="D96" s="6">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3595,7 +3602,7 @@
         <v>100</v>
       </c>
       <c r="D97" s="6">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3603,7 +3610,7 @@
         <v>101</v>
       </c>
       <c r="D98" s="6">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3611,7 +3618,7 @@
         <v>102</v>
       </c>
       <c r="D99" s="6">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3619,7 +3626,7 @@
         <v>103</v>
       </c>
       <c r="D100" s="6">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3627,7 +3634,7 @@
         <v>104</v>
       </c>
       <c r="D101" s="6">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3635,7 +3642,7 @@
         <v>105</v>
       </c>
       <c r="D102" s="6">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3643,7 +3650,7 @@
         <v>106</v>
       </c>
       <c r="D103" s="6">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3651,7 +3658,7 @@
         <v>107</v>
       </c>
       <c r="D104" s="6">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3659,7 +3666,7 @@
         <v>108</v>
       </c>
       <c r="D105" s="6">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3667,7 +3674,7 @@
         <v>109</v>
       </c>
       <c r="D106" s="6">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3675,7 +3682,7 @@
         <v>110</v>
       </c>
       <c r="D107" s="6">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3683,7 +3690,7 @@
         <v>111</v>
       </c>
       <c r="D108" s="6">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3691,7 +3698,7 @@
         <v>112</v>
       </c>
       <c r="D109" s="6">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3699,7 +3706,7 @@
         <v>113</v>
       </c>
       <c r="D110" s="6">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3707,7 +3714,7 @@
         <v>114</v>
       </c>
       <c r="D111" s="6">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3715,7 +3722,7 @@
         <v>115</v>
       </c>
       <c r="D112" s="6">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3723,7 +3730,7 @@
         <v>116</v>
       </c>
       <c r="D113" s="6">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3731,7 +3738,7 @@
         <v>117</v>
       </c>
       <c r="D114" s="6">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3739,7 +3746,7 @@
         <v>118</v>
       </c>
       <c r="D115" s="6">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3747,7 +3754,7 @@
         <v>119</v>
       </c>
       <c r="D116" s="6">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3755,7 +3762,7 @@
         <v>120</v>
       </c>
       <c r="D117" s="6">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3763,7 +3770,7 @@
         <v>121</v>
       </c>
       <c r="D118" s="6">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3771,7 +3778,7 @@
         <v>122</v>
       </c>
       <c r="D119" s="6">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3779,7 +3786,7 @@
         <v>123</v>
       </c>
       <c r="D120" s="6">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3787,7 +3794,7 @@
         <v>124</v>
       </c>
       <c r="D121" s="6">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3795,7 +3802,7 @@
         <v>125</v>
       </c>
       <c r="D122" s="6">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3803,7 +3810,7 @@
         <v>126</v>
       </c>
       <c r="D123" s="6">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3811,7 +3818,7 @@
         <v>127</v>
       </c>
       <c r="D124" s="6">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3819,7 +3826,7 @@
         <v>128</v>
       </c>
       <c r="D125" s="6">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3827,7 +3834,7 @@
         <v>129</v>
       </c>
       <c r="D126" s="6">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3835,7 +3842,7 @@
         <v>130</v>
       </c>
       <c r="D127" s="6">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3843,7 +3850,7 @@
         <v>131</v>
       </c>
       <c r="D128" s="6">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3851,7 +3858,7 @@
         <v>132</v>
       </c>
       <c r="D129" s="6">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3859,7 +3866,7 @@
         <v>133</v>
       </c>
       <c r="D130" s="6">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3867,7 +3874,7 @@
         <v>134</v>
       </c>
       <c r="D131" s="6">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3875,7 +3882,7 @@
         <v>135</v>
       </c>
       <c r="D132" s="6">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3883,7 +3890,7 @@
         <v>136</v>
       </c>
       <c r="D133" s="6">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3891,7 +3898,7 @@
         <v>137</v>
       </c>
       <c r="D134" s="6">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3899,7 +3906,7 @@
         <v>138</v>
       </c>
       <c r="D135" s="6">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3907,7 +3914,7 @@
         <v>139</v>
       </c>
       <c r="D136" s="6">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3915,7 +3922,7 @@
         <v>140</v>
       </c>
       <c r="D137" s="6">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3923,7 +3930,7 @@
         <v>141</v>
       </c>
       <c r="D138" s="6">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3931,7 +3938,7 @@
         <v>142</v>
       </c>
       <c r="D139" s="6">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3939,7 +3946,7 @@
         <v>143</v>
       </c>
       <c r="D140" s="6">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3947,7 +3954,7 @@
         <v>144</v>
       </c>
       <c r="D141" s="6">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3955,7 +3962,7 @@
         <v>145</v>
       </c>
       <c r="D142" s="6">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3963,7 +3970,7 @@
         <v>146</v>
       </c>
       <c r="D143" s="6">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3971,7 +3978,7 @@
         <v>147</v>
       </c>
       <c r="D144" s="6">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3979,7 +3986,7 @@
         <v>148</v>
       </c>
       <c r="D145" s="6">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -3987,7 +3994,7 @@
         <v>149</v>
       </c>
       <c r="D146" s="6">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3995,7 +4002,7 @@
         <v>150</v>
       </c>
       <c r="D147" s="6">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -4003,7 +4010,7 @@
         <v>151</v>
       </c>
       <c r="D148" s="6">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -4011,7 +4018,7 @@
         <v>152</v>
       </c>
       <c r="D149" s="6">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4019,7 +4026,7 @@
         <v>153</v>
       </c>
       <c r="D150" s="6">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -4027,7 +4034,7 @@
         <v>154</v>
       </c>
       <c r="D151" s="6">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -4035,7 +4042,7 @@
         <v>155</v>
       </c>
       <c r="D152" s="6">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4043,7 +4050,7 @@
         <v>156</v>
       </c>
       <c r="D153" s="6">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -4051,7 +4058,7 @@
         <v>157</v>
       </c>
       <c r="D154" s="6">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -4059,7 +4066,7 @@
         <v>158</v>
       </c>
       <c r="D155" s="6">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -4067,7 +4074,7 @@
         <v>159</v>
       </c>
       <c r="D156" s="6">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -4075,7 +4082,7 @@
         <v>160</v>
       </c>
       <c r="D157" s="6">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -4083,7 +4090,7 @@
         <v>161</v>
       </c>
       <c r="D158" s="6">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -4091,7 +4098,7 @@
         <v>162</v>
       </c>
       <c r="D159" s="6">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -4099,7 +4106,7 @@
         <v>163</v>
       </c>
       <c r="D160" s="6">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -4107,7 +4114,7 @@
         <v>164</v>
       </c>
       <c r="D161" s="6">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -4115,7 +4122,7 @@
         <v>165</v>
       </c>
       <c r="D162" s="6">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4123,7 +4130,7 @@
         <v>166</v>
       </c>
       <c r="D163" s="6">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -4131,7 +4138,7 @@
         <v>167</v>
       </c>
       <c r="D164" s="6">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -4139,7 +4146,7 @@
         <v>168</v>
       </c>
       <c r="D165" s="6">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -4147,7 +4154,7 @@
         <v>169</v>
       </c>
       <c r="D166" s="6">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -4155,7 +4162,7 @@
         <v>170</v>
       </c>
       <c r="D167" s="6">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -4163,7 +4170,7 @@
         <v>171</v>
       </c>
       <c r="D168" s="6">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -4171,7 +4178,7 @@
         <v>172</v>
       </c>
       <c r="D169" s="6">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -4179,7 +4186,7 @@
         <v>173</v>
       </c>
       <c r="D170" s="6">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -4187,7 +4194,7 @@
         <v>174</v>
       </c>
       <c r="D171" s="6">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4195,7 +4202,7 @@
         <v>175</v>
       </c>
       <c r="D172" s="6">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -4203,7 +4210,7 @@
         <v>176</v>
       </c>
       <c r="D173" s="6">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4211,7 +4218,7 @@
         <v>177</v>
       </c>
       <c r="D174" s="6">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -4219,7 +4226,7 @@
         <v>178</v>
       </c>
       <c r="D175" s="6">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -4227,7 +4234,7 @@
         <v>179</v>
       </c>
       <c r="D176" s="6">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -4235,7 +4242,7 @@
         <v>180</v>
       </c>
       <c r="D177" s="6">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -4243,7 +4250,7 @@
         <v>181</v>
       </c>
       <c r="D178" s="6">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -4251,7 +4258,7 @@
         <v>182</v>
       </c>
       <c r="D179" s="6">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -4259,7 +4266,7 @@
         <v>183</v>
       </c>
       <c r="D180" s="6">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4267,7 +4274,7 @@
         <v>184</v>
       </c>
       <c r="D181" s="6">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4275,7 +4282,7 @@
         <v>185</v>
       </c>
       <c r="D182" s="6">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4283,7 +4290,7 @@
         <v>186</v>
       </c>
       <c r="D183" s="6">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -4291,7 +4298,7 @@
         <v>187</v>
       </c>
       <c r="D184" s="6">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4299,7 +4306,7 @@
         <v>188</v>
       </c>
       <c r="D185" s="6">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -4307,7 +4314,7 @@
         <v>189</v>
       </c>
       <c r="D186" s="6">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4315,7 +4322,7 @@
         <v>190</v>
       </c>
       <c r="D187" s="6">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4323,7 +4330,7 @@
         <v>191</v>
       </c>
       <c r="D188" s="6">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -4331,7 +4338,7 @@
         <v>192</v>
       </c>
       <c r="D189" s="6">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4339,7 +4346,7 @@
         <v>193</v>
       </c>
       <c r="D190" s="6">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4347,7 +4354,7 @@
         <v>194</v>
       </c>
       <c r="D191" s="6">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -4355,7 +4362,7 @@
         <v>195</v>
       </c>
       <c r="D192" s="6">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4363,7 +4370,7 @@
         <v>196</v>
       </c>
       <c r="D193" s="6">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4371,7 +4378,7 @@
         <v>197</v>
       </c>
       <c r="D194" s="6">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4379,7 +4386,7 @@
         <v>198</v>
       </c>
       <c r="D195" s="6">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4387,7 +4394,7 @@
         <v>199</v>
       </c>
       <c r="D196" s="6">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4395,7 +4402,7 @@
         <v>200</v>
       </c>
       <c r="D197" s="6">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4403,7 +4410,7 @@
         <v>201</v>
       </c>
       <c r="D198" s="6">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4411,7 +4418,7 @@
         <v>202</v>
       </c>
       <c r="D199" s="6">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4419,7 +4426,7 @@
         <v>203</v>
       </c>
       <c r="D200" s="6">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4427,7 +4434,7 @@
         <v>204</v>
       </c>
       <c r="D201" s="6">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4435,7 +4442,7 @@
         <v>205</v>
       </c>
       <c r="D202" s="6">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4443,7 +4450,7 @@
         <v>206</v>
       </c>
       <c r="D203" s="6">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4451,7 +4458,7 @@
         <v>207</v>
       </c>
       <c r="D204" s="6">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4459,7 +4466,7 @@
         <v>208</v>
       </c>
       <c r="D205" s="6">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4467,7 +4474,7 @@
         <v>209</v>
       </c>
       <c r="D206" s="6">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4475,7 +4482,7 @@
         <v>210</v>
       </c>
       <c r="D207" s="6">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4483,7 +4490,7 @@
         <v>211</v>
       </c>
       <c r="D208" s="6">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4491,7 +4498,7 @@
         <v>212</v>
       </c>
       <c r="D209" s="6">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4499,7 +4506,7 @@
         <v>213</v>
       </c>
       <c r="D210" s="6">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4507,7 +4514,7 @@
         <v>214</v>
       </c>
       <c r="D211" s="6">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -4515,7 +4522,7 @@
         <v>215</v>
       </c>
       <c r="D212" s="6">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4523,7 +4530,7 @@
         <v>216</v>
       </c>
       <c r="D213" s="6">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -4531,7 +4538,7 @@
         <v>217</v>
       </c>
       <c r="D214" s="6">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -4539,7 +4546,7 @@
         <v>218</v>
       </c>
       <c r="D215" s="6">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -4547,7 +4554,7 @@
         <v>219</v>
       </c>
       <c r="D216" s="6">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -4555,7 +4562,7 @@
         <v>220</v>
       </c>
       <c r="D217" s="6">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -4563,7 +4570,7 @@
         <v>221</v>
       </c>
       <c r="D218" s="6">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -4571,7 +4578,7 @@
         <v>222</v>
       </c>
       <c r="D219" s="6">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -4579,7 +4586,7 @@
         <v>223</v>
       </c>
       <c r="D220" s="6">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -4587,7 +4594,7 @@
         <v>224</v>
       </c>
       <c r="D221" s="6">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -4595,7 +4602,7 @@
         <v>225</v>
       </c>
       <c r="D222" s="6">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -4603,7 +4610,7 @@
         <v>226</v>
       </c>
       <c r="D223" s="6">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -4611,7 +4618,7 @@
         <v>227</v>
       </c>
       <c r="D224" s="6">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -4619,7 +4626,7 @@
         <v>228</v>
       </c>
       <c r="D225" s="6">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -4627,7 +4634,7 @@
         <v>229</v>
       </c>
       <c r="D226" s="6">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -4635,7 +4642,7 @@
         <v>230</v>
       </c>
       <c r="D227" s="6">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -4643,7 +4650,7 @@
         <v>231</v>
       </c>
       <c r="D228" s="6">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -4651,7 +4658,7 @@
         <v>232</v>
       </c>
       <c r="D229" s="6">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -4659,7 +4666,7 @@
         <v>233</v>
       </c>
       <c r="D230" s="6">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -4667,7 +4674,7 @@
         <v>234</v>
       </c>
       <c r="D231" s="6">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -4675,7 +4682,7 @@
         <v>235</v>
       </c>
       <c r="D232" s="6">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -4683,7 +4690,7 @@
         <v>236</v>
       </c>
       <c r="D233" s="6">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -4691,7 +4698,7 @@
         <v>237</v>
       </c>
       <c r="D234" s="6">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -4699,7 +4706,7 @@
         <v>238</v>
       </c>
       <c r="D235" s="6">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -4707,7 +4714,7 @@
         <v>239</v>
       </c>
       <c r="D236" s="6">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -4715,7 +4722,7 @@
         <v>240</v>
       </c>
       <c r="D237" s="6">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -4723,7 +4730,7 @@
         <v>241</v>
       </c>
       <c r="D238" s="6">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -4731,7 +4738,7 @@
         <v>242</v>
       </c>
       <c r="D239" s="6">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -4739,7 +4746,7 @@
         <v>243</v>
       </c>
       <c r="D240" s="6">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -4747,7 +4754,7 @@
         <v>244</v>
       </c>
       <c r="D241" s="6">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -4755,7 +4762,7 @@
         <v>245</v>
       </c>
       <c r="D242" s="6">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -4763,7 +4770,7 @@
         <v>246</v>
       </c>
       <c r="D243" s="6">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -4771,7 +4778,7 @@
         <v>247</v>
       </c>
       <c r="D244" s="6">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -4779,7 +4786,7 @@
         <v>248</v>
       </c>
       <c r="D245" s="6">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -4787,7 +4794,7 @@
         <v>249</v>
       </c>
       <c r="D246" s="6">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -4795,7 +4802,7 @@
         <v>250</v>
       </c>
       <c r="D247" s="6">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -4803,7 +4810,7 @@
         <v>251</v>
       </c>
       <c r="D248" s="6">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -4811,7 +4818,7 @@
         <v>252</v>
       </c>
       <c r="D249" s="6">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -4819,7 +4826,7 @@
         <v>253</v>
       </c>
       <c r="D250" s="6">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -4827,7 +4834,7 @@
         <v>254</v>
       </c>
       <c r="D251" s="6">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -4835,7 +4842,7 @@
         <v>255</v>
       </c>
       <c r="D252" s="6">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -4843,7 +4850,7 @@
         <v>256</v>
       </c>
       <c r="D253" s="6">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -4851,7 +4858,7 @@
         <v>257</v>
       </c>
       <c r="D254" s="6">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -4859,7 +4866,7 @@
         <v>258</v>
       </c>
       <c r="D255" s="6">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -4867,7 +4874,7 @@
         <v>259</v>
       </c>
       <c r="D256" s="6">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -4875,7 +4882,7 @@
         <v>260</v>
       </c>
       <c r="D257" s="6">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -4883,7 +4890,7 @@
         <v>261</v>
       </c>
       <c r="D258" s="6">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -4891,7 +4898,7 @@
         <v>262</v>
       </c>
       <c r="D259" s="6">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -4899,7 +4906,7 @@
         <v>263</v>
       </c>
       <c r="D260" s="6">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -4907,7 +4914,7 @@
         <v>264</v>
       </c>
       <c r="D261" s="6">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -4915,7 +4922,7 @@
         <v>265</v>
       </c>
       <c r="D262" s="6">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -4923,7 +4930,7 @@
         <v>266</v>
       </c>
       <c r="D263" s="6">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -4931,16 +4938,13 @@
         <v>267</v>
       </c>
       <c r="D264" s="6">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="D265" s="6">
-        <v>365</v>
-      </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
@@ -5432,13 +5436,8 @@
         <v>366</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="10" t="s">
-        <v>367</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E5">
+  <conditionalFormatting sqref="E2:E5 E7">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -5482,7 +5481,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E5</xm:sqref>
+          <xm:sqref>E2:E5 E7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8310665B-DC0E-4B4E-B761-9F7FC298578E}">

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -2791,7 +2791,7 @@
         <v>101</v>
       </c>
       <c r="E2" s="5">
-        <f t="shared" ref="E2:E7" si="0">$C2-$D2</f>
+        <f>$C2-$D2</f>
         <v>57.699999999999989</v>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
         <v>102</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" si="0"/>
+        <f>$C3-$D3</f>
         <v>58.930000000000007</v>
       </c>
     </row>
@@ -2827,7 +2827,7 @@
         <v>103</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" si="0"/>
+        <f>$C4-$D4</f>
         <v>60.180000000000007</v>
       </c>
     </row>
@@ -2845,7 +2845,7 @@
         <v>104</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" si="0"/>
+        <f>$C5-$D5</f>
         <v>61.419999999999987</v>
       </c>
     </row>
@@ -2863,7 +2863,7 @@
         <v>106</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="0"/>
+        <f>$C6-$D6</f>
         <v>62.47</v>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
         <v>108</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="0"/>
+        <f>$C7-$D7</f>
         <v>62.569999999999993</v>
       </c>
     </row>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -2757,7 +2757,7 @@
     <col min="1" max="1" width="21.42578125" style="10" customWidth="1"/>
     <col min="2" max="3" width="18.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="44.140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="50.42578125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2791,7 +2791,7 @@
         <v>101</v>
       </c>
       <c r="E2" s="5">
-        <f>$C2-$D2</f>
+        <f t="shared" ref="E2:E8" si="0">$C2-$D2</f>
         <v>57.699999999999989</v>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
         <v>102</v>
       </c>
       <c r="E3" s="5">
-        <f>$C3-$D3</f>
+        <f t="shared" si="0"/>
         <v>58.930000000000007</v>
       </c>
     </row>
@@ -2827,7 +2827,7 @@
         <v>103</v>
       </c>
       <c r="E4" s="5">
-        <f>$C4-$D4</f>
+        <f t="shared" si="0"/>
         <v>60.180000000000007</v>
       </c>
     </row>
@@ -2845,7 +2845,7 @@
         <v>104</v>
       </c>
       <c r="E5" s="5">
-        <f>$C5-$D5</f>
+        <f t="shared" si="0"/>
         <v>61.419999999999987</v>
       </c>
     </row>
@@ -2863,7 +2863,7 @@
         <v>106</v>
       </c>
       <c r="E6" s="5">
-        <f>$C6-$D6</f>
+        <f t="shared" si="0"/>
         <v>62.47</v>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
         <v>108</v>
       </c>
       <c r="E7" s="5">
-        <f>$C7-$D7</f>
+        <f t="shared" si="0"/>
         <v>62.569999999999993</v>
       </c>
     </row>
@@ -2889,8 +2889,18 @@
       <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="B8" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>172.67</v>
+      </c>
       <c r="D8" s="6">
         <v>109</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>63.669999999999987</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -5438,7 +5448,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E5 E7">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5452,6 +5462,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8310665B-DC0E-4B4E-B761-9F7FC298578E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -5460,7 +5484,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8310665B-DC0E-4B4E-B761-9F7FC298578E}</x14:id>
+          <x14:id>{261661F7-5321-450A-840D-1F540B7A47EF}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5496,6 +5520,19 @@
           </x14:cfRule>
           <xm:sqref>E6</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{261661F7-5321-450A-840D-1F540B7A47EF}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E8</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/miles.xlsx
+++ b/miles.xlsx
@@ -2791,7 +2791,7 @@
         <v>101</v>
       </c>
       <c r="E2" s="5">
-        <f t="shared" ref="E2:E8" si="0">$C2-$D2</f>
+        <f t="shared" ref="E2:E9" si="0">$C2-$D2</f>
         <v>57.699999999999989</v>
       </c>
     </row>
@@ -2907,8 +2907,18 @@
       <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="B9" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C9" s="5">
+        <v>174.87</v>
+      </c>
       <c r="D9" s="6">
         <v>110</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>64.87</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -5448,7 +5458,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E5 E7">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5462,7 +5472,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5476,6 +5486,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{261661F7-5321-450A-840D-1F540B7A47EF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -5484,7 +5508,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{261661F7-5321-450A-840D-1F540B7A47EF}</x14:id>
+          <x14:id>{B9088D98-D8D5-4AB1-A337-A660372BD229}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5533,6 +5557,19 @@
           </x14:cfRule>
           <xm:sqref>E8</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B9088D98-D8D5-4AB1-A337-A660372BD229}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E9</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
